--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9261" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73E3C21-FD90-4B80-98BD-81D6D24F06D6}"/>
+  <xr:revisionPtr revIDLastSave="9310" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B107296A-C727-42ED-8331-E36BCC0C2532}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="2021" sheetId="28" r:id="rId8"/>
     <sheet name="2022" sheetId="31" r:id="rId9"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId11"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="33" r:id="rId11"/>
+    <sheet name="Winning Percentile Range" sheetId="34" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="554">
   <si>
     <t>ROUND</t>
   </si>
@@ -1679,6 +1679,33 @@
   </si>
   <si>
     <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 7-5</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 7-6(8)</t>
   </si>
 </sst>
 </file>
@@ -1832,11 +1859,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Elena Rybakina </a:t>
+              <a:t>Elena Rybakina (KAZAKHSTAN):</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>(KAZAKHSTAN): YTD Wins-Losses</a:t>
+              <a:t> Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -1904,67 +1931,79 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$3:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$3:$D$9</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000000-6218-4AD6-9E8E-8A46590B0C7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1994,67 +2033,79 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$3:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$3:$E$9</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000001-6218-4AD6-9E8E-8A46590B0C7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2068,11 +2119,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2048266703"/>
-        <c:axId val="2048246735"/>
+        <c:axId val="808604896"/>
+        <c:axId val="808607392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048266703"/>
+        <c:axId val="808604896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048246735"/>
+        <c:crossAx val="808607392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048246735"/>
+        <c:axId val="808607392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048266703"/>
+        <c:crossAx val="808604896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2394,13 +2445,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Elena Rybakina (KAZAKHSTAN)</a:t>
+              <a:t>Elena Rybakina (KAZAKHSTAN): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>: Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2488,66 +2534,77 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$3:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$3:$F$9</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.69565217391304346</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.52380952380952384</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.36363636363636365</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.63157894736842102</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.65517241379310343</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.35294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51282051282051277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2612,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-91A9-4C16-A292-26D1475FB471}"/>
+              <c16:uniqueId val="{00000000-8FA3-437B-A060-6CA8B4BC926D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2569,11 +2626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335326623"/>
-        <c:axId val="335323295"/>
+        <c:axId val="1507873536"/>
+        <c:axId val="1507863552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335326623"/>
+        <c:axId val="1507873536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335323295"/>
+        <c:crossAx val="1507863552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2679,7 +2736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335323295"/>
+        <c:axId val="1507863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,7 +2842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335326623"/>
+        <c:crossAx val="1507873536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3444,7 +3501,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3552,11 +3609,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3567,11 +3619,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3603,9 +3650,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3960,26 +4004,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3828ED73-5264-44EE-9AC5-49A8D01EE845}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BCC3B30-CE08-49B6-8D7F-0A80DDFD28B4}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EB196088-D968-4675-9941-431035E29CF0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{43CF85E9-EF85-4440-AF47-6E69CA2F1E05}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -3987,13 +4029,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53857B62-11C3-4FF7-8F8D-45BED17D8616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39F5CEF-D3D4-62FA-1F14-EA546A063801}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4020,13 +4062,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EEC9C3-0274-4898-84EE-9C2B23130AC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1D35DB-92E6-5C87-15C7-1F1B5FFE1297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,6 +4089,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4433,8 +4479,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A10 F1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,20 +4686,20 @@
         <v>2022</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.51428571428571423</v>
+        <v>0.51282051282051277</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4662,7 +4708,7 @@
       </c>
       <c r="B11" s="2">
         <f>SUM(B2:B10)</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:E11" si="1">SUM(C2:C10)</f>
@@ -4670,15 +4716,15 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7">
         <f>(D11-E11)/D11</f>
-        <v>0.53749999999999998</v>
+        <v>0.53688524590163933</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,7 +4733,7 @@
       </c>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B10)</f>
-        <v>13.666666666666666</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12:E12" si="2">AVERAGE(C2:C10)</f>
@@ -4695,15 +4741,15 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>26.666666666666668</v>
+        <v>27.111111111111111</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>12.333333333333334</v>
+        <v>12.555555555555555</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53749999999999998</v>
+        <v>0.53688524590163933</v>
       </c>
     </row>
   </sheetData>
@@ -8225,8 +8271,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9860,10 +9906,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E76" activeCellId="16" sqref="E6 E12 E17 E22 E25 E27 E33 E37 E41 E45 E48 E50 E60 E63 E68 E70 E76"/>
+      <selection activeCell="E84" activeCellId="18" sqref="E6 E12 E17 E22 E25 E27 E33 E37 E41 E45 E48 E50 E60 E63 E68 E70 E76 E81 E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10786,6 +10832,102 @@
         <v>539</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>442</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>520</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>546</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>548</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>448</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>551</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>552</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9310" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B107296A-C727-42ED-8331-E36BCC0C2532}"/>
+  <xr:revisionPtr revIDLastSave="9411" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E288D4CC-4416-43BE-9E69-694B5B717096}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="2020" sheetId="27" r:id="rId7"/>
     <sheet name="2021" sheetId="28" r:id="rId8"/>
     <sheet name="2022" sheetId="31" r:id="rId9"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
-    <sheet name="Wins-Losses" sheetId="33" r:id="rId11"/>
-    <sheet name="Winning Percentile Range" sheetId="34" r:id="rId12"/>
+    <sheet name="2023" sheetId="35" r:id="rId10"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId12"/>
+    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="565">
   <si>
     <t>ROUND</t>
   </si>
@@ -1706,6 +1707,39 @@
   </si>
   <si>
     <t>2-6 6-3 7-6(8)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-2 6-3</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Kaja Juvan (SLOVENIA)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>6-4 6-4 </t>
+  </si>
+  <si>
+    <t>7-6(4) 6-3 </t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -1859,13 +1893,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Elena Rybakina (KAZAKHSTAN):</a:t>
+              <a:t>Elena Rybakina (KAZAKHSTAN): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1931,10 +1960,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1962,15 +1991,18 @@
                 <c:pt idx="8">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$10</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1998,12 +2030,15 @@
                 <c:pt idx="8">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6218-4AD6-9E8E-8A46590B0C7E}"/>
+              <c16:uniqueId val="{00000000-1A8A-4BB5-BACF-C35A15B6A93A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2033,10 +2068,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2064,15 +2099,18 @@
                 <c:pt idx="8">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$10</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2100,12 +2138,15 @@
                 <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6218-4AD6-9E8E-8A46590B0C7E}"/>
+              <c16:uniqueId val="{00000001-1A8A-4BB5-BACF-C35A15B6A93A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2119,11 +2160,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="808604896"/>
-        <c:axId val="808607392"/>
+        <c:axId val="1640145360"/>
+        <c:axId val="1640162000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="808604896"/>
+        <c:axId val="1640145360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="808607392"/>
+        <c:crossAx val="1640162000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2229,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="808607392"/>
+        <c:axId val="1640162000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +2376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="808604896"/>
+        <c:crossAx val="1640145360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2445,8 +2486,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Elena Rybakina (KAZAKHSTAN): Winning Percentile Range</a:t>
+              <a:t>Elena Rybakina (KAZAKHSTAN): Winning</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2539,10 +2585,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$10</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2570,15 +2616,18 @@
                 <c:pt idx="8">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$10</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2606,13 +2655,16 @@
                 <c:pt idx="8">
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FA3-437B-A060-6CA8B4BC926D}"/>
+              <c16:uniqueId val="{00000000-581C-4551-94F7-14FDB7C7EF63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2626,11 +2678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1507873536"/>
-        <c:axId val="1507863552"/>
+        <c:axId val="1836121152"/>
+        <c:axId val="1836119904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1507873536"/>
+        <c:axId val="1836121152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1507863552"/>
+        <c:crossAx val="1836119904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1507863552"/>
+        <c:axId val="1836119904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +2894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1507873536"/>
+        <c:crossAx val="1836121152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4004,18 +4056,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2BCC3B30-CE08-49B6-8D7F-0A80DDFD28B4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{43CF85E9-EF85-4440-AF47-6E69CA2F1E05}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4029,13 +4082,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39F5CEF-D3D4-62FA-1F14-EA546A063801}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7144F85-6A94-579F-02D4-24EC3078DE2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4062,13 +4115,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1D35DB-92E6-5C87-15C7-1F1B5FFE1297}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A22B309-CD15-4427-C923-C36838CB05DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4401,17 +4454,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4431,7 +4484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -4451,7 +4504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4465,7 +4518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4473,27 +4526,232 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95E0E0B-88A8-4A71-8563-1370D4E88617}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A10 F1:F10"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A11 F1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4513,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -4530,11 +4788,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4555,7 +4813,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -4576,7 +4834,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4597,7 +4855,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4618,7 +4876,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4639,7 +4897,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4660,7 +4918,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -4681,7 +4939,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -4702,58 +4960,79 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>125</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:E11" si="1">SUM(C2:C10)</f>
+      <c r="B12" s="2">
+        <f>SUM(B2:B11)</f>
+        <v>128</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(C2:C11)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>244</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.53688524590163933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2">
-        <f>AVERAGE(B2:B10)</f>
-        <v>13.888888888888889</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ref="C12:E12" si="2">AVERAGE(C2:C10)</f>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>27.111111111111111</v>
+        <f>SUM(D2:D11)</f>
+        <v>251</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>12.555555555555555</v>
+        <f>SUM(E2:E11)</f>
+        <v>116</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53688524590163933</v>
+        <v>0.53784860557768921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>12.8</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>25.1</v>
+      </c>
+      <c r="E13" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>11.6</v>
+      </c>
+      <c r="F13" s="7">
+        <f>(D13-E13)/D13</f>
+        <v>0.53784860557768932</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F10">
+  <conditionalFormatting sqref="F3:F11">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4762,7 +5041,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F10">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -4787,17 +5066,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +5096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -4837,7 +5116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4851,7 +5130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -4871,7 +5150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -4885,7 +5164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +5178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4913,7 +5192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -4927,7 +5206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -4941,7 +5220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -4955,10 +5234,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4977,17 +5256,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5007,7 +5286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -5027,7 +5306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +5320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -5061,7 +5340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5075,7 +5354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -5089,7 +5368,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -5103,7 +5382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -5117,7 +5396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -5131,7 +5410,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -5151,7 +5430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -5171,7 +5450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -5185,7 +5464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -5199,7 +5478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -5213,7 +5492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -5227,7 +5506,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -5241,7 +5520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -5261,7 +5540,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +5554,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -5289,7 +5568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -5303,7 +5582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -5323,7 +5602,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -5337,7 +5616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -5351,7 +5630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -5365,7 +5644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -5385,7 +5664,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -5399,7 +5678,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -5413,7 +5692,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -5433,7 +5712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -5461,7 +5740,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -5475,7 +5754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -5507,17 +5786,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5537,7 +5816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -5557,7 +5836,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -5571,7 +5850,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -5591,7 +5870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -5605,7 +5884,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -5619,7 +5898,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -5633,7 +5912,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -5647,7 +5926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -5667,7 +5946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -5687,7 +5966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -5701,7 +5980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -5715,7 +5994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -5729,7 +6008,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>185</v>
       </c>
@@ -5749,7 +6028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -5769,7 +6048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -5783,7 +6062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -5797,7 +6076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +6090,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -5831,7 +6110,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -5845,7 +6124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -5859,7 +6138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -5873,7 +6152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -5887,7 +6166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -5907,7 +6186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -5921,7 +6200,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -5935,7 +6214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -5949,7 +6228,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -5969,7 +6248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -5983,7 +6262,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -5997,7 +6276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -6011,7 +6290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -6049,17 +6328,17 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -6099,7 +6378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6113,7 +6392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -6127,7 +6406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -6141,7 +6420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -6155,7 +6434,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6169,7 +6448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -6189,7 +6468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -6203,7 +6482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6217,7 +6496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -6231,7 +6510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -6251,7 +6530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -6265,7 +6544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -6279,7 +6558,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -6293,7 +6572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -6307,7 +6586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -6327,7 +6606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>185</v>
       </c>
@@ -6347,7 +6626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -6375,7 +6654,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -6389,7 +6668,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -6403,7 +6682,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -6423,7 +6702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -6443,7 +6722,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -6457,7 +6736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -6471,7 +6750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -6485,7 +6764,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>247</v>
       </c>
@@ -6505,7 +6784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -6519,7 +6798,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>249</v>
       </c>
@@ -6539,7 +6818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -6553,7 +6832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>252</v>
       </c>
@@ -6573,7 +6852,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -6587,7 +6866,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -6601,7 +6880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -6621,7 +6900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>260</v>
       </c>
@@ -6641,7 +6920,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -6655,7 +6934,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -6675,7 +6954,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -6695,7 +6974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -6709,7 +6988,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -6729,7 +7008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -6743,7 +7022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6763,7 +7042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -6777,7 +7056,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>276</v>
       </c>
@@ -6797,7 +7076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -6817,7 +7096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -6837,7 +7116,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +7130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -6865,7 +7144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>284</v>
       </c>
@@ -6885,7 +7164,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -6899,7 +7178,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>289</v>
       </c>
@@ -6919,7 +7198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -6933,7 +7212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>292</v>
       </c>
@@ -6953,7 +7232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -6985,17 +7264,17 @@
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7015,7 +7294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -7035,7 +7314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -7049,7 +7328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -7063,7 +7342,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -7077,7 +7356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -7091,7 +7370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -7111,7 +7390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -7131,7 +7410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>303</v>
       </c>
@@ -7151,7 +7430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -7165,7 +7444,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -7179,7 +7458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -7193,7 +7472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -7207,7 +7486,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -7227,7 +7506,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -7247,7 +7526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7261,7 +7540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7275,7 +7554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7289,7 +7568,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -7303,7 +7582,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -7323,7 +7602,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7337,7 +7616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7351,7 +7630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7365,7 +7644,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -7379,7 +7658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>232</v>
       </c>
@@ -7399,7 +7678,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -7413,7 +7692,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>185</v>
       </c>
@@ -7433,7 +7712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>323</v>
       </c>
@@ -7453,7 +7732,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -7467,7 +7746,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +7760,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -7495,7 +7774,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -7509,7 +7788,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>332</v>
       </c>
@@ -7529,7 +7808,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -7543,7 +7822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -7563,7 +7842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -7577,7 +7856,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -7591,7 +7870,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -7605,7 +7884,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>343</v>
       </c>
@@ -7625,7 +7904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>344</v>
       </c>
@@ -7645,7 +7924,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -7659,7 +7938,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -7673,7 +7952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -7687,7 +7966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -7701,7 +7980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -7715,7 +7994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -7735,7 +8014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -7749,7 +8028,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -7763,7 +8042,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>357</v>
       </c>
@@ -7783,7 +8062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +8076,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>260</v>
       </c>
@@ -7817,7 +8096,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -7831,7 +8110,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -7845,7 +8124,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -7859,7 +8138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -7873,7 +8152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>367</v>
       </c>
@@ -7893,7 +8172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -7907,7 +8186,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -7927,7 +8206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -7947,7 +8226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -7961,7 +8240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -7975,7 +8254,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -7989,7 +8268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>375</v>
       </c>
@@ -8009,7 +8288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -8023,7 +8302,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -8037,7 +8316,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -8051,7 +8330,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -8065,7 +8344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>382</v>
       </c>
@@ -8085,7 +8364,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>385</v>
       </c>
@@ -8105,7 +8384,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -8119,7 +8398,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -8133,7 +8412,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -8147,7 +8426,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>393</v>
       </c>
@@ -8167,7 +8446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8460,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -8195,7 +8474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>398</v>
       </c>
@@ -8215,7 +8494,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -8229,7 +8508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -8243,7 +8522,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -8275,17 +8554,17 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8305,7 +8584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>402</v>
       </c>
@@ -8325,7 +8604,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8339,7 +8618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8353,7 +8632,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8367,7 +8646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8381,7 +8660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>410</v>
       </c>
@@ -8401,7 +8680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -8415,7 +8694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -8429,7 +8708,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -8443,7 +8722,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -8457,7 +8736,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -8477,7 +8756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -8491,7 +8770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -8505,7 +8784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -8525,7 +8804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -8539,7 +8818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -8553,7 +8832,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -8567,7 +8846,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -8581,7 +8860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>424</v>
       </c>
@@ -8601,7 +8880,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -8615,7 +8894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -8629,7 +8908,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -8643,7 +8922,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -8657,7 +8936,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>423</v>
       </c>
@@ -8677,7 +8956,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -8691,7 +8970,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -8705,7 +8984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -8725,7 +9004,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -8745,7 +9024,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -8759,7 +9038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -8779,7 +9058,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -8793,7 +9072,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -8807,7 +9086,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -8827,7 +9106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8841,7 +9120,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -8855,7 +9134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -8869,7 +9148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -8883,7 +9162,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>336</v>
       </c>
@@ -8903,7 +9182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -8917,7 +9196,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>442</v>
       </c>
@@ -8950,21 +9229,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8984,7 +9263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -9004,7 +9283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -9018,7 +9297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -9032,7 +9311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -9046,7 +9325,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>449</v>
       </c>
@@ -9066,7 +9345,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -9086,7 +9365,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -9100,7 +9379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>423</v>
       </c>
@@ -9120,7 +9399,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>424</v>
       </c>
@@ -9140,7 +9419,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -9154,7 +9433,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -9174,7 +9453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -9188,7 +9467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>455</v>
       </c>
@@ -9208,7 +9487,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>457</v>
       </c>
@@ -9225,7 +9504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>458</v>
       </c>
@@ -9236,7 +9515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -9256,7 +9535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -9270,7 +9549,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>336</v>
       </c>
@@ -9290,7 +9569,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -9304,7 +9583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -9318,7 +9597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -9332,7 +9611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -9346,7 +9625,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -9366,7 +9645,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -9380,7 +9659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9400,7 +9679,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -9414,7 +9693,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9428,7 +9707,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -9442,7 +9721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9462,7 +9741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -9476,7 +9755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -9490,7 +9769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -9504,7 +9783,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>473</v>
       </c>
@@ -9524,7 +9803,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -9538,7 +9817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -9552,7 +9831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -9566,7 +9845,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -9580,7 +9859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -9594,7 +9873,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>480</v>
       </c>
@@ -9614,7 +9893,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -9628,7 +9907,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>484</v>
       </c>
@@ -9648,7 +9927,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -9668,7 +9947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -9682,7 +9961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -9696,7 +9975,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -9716,7 +9995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -9730,7 +10009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -9744,7 +10023,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>442</v>
       </c>
@@ -9764,7 +10043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9778,7 +10057,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9792,7 +10071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -9812,7 +10091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -9826,7 +10105,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -9840,7 +10119,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -9854,7 +10133,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -9874,7 +10153,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -9908,21 +10187,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E84" activeCellId="18" sqref="E6 E12 E17 E22 E25 E27 E33 E37 E41 E45 E48 E50 E60 E63 E68 E70 E76 E81 E84"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9942,7 +10221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -9962,7 +10241,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9976,7 +10255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9990,7 +10269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10004,7 +10283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -10018,7 +10297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>496</v>
       </c>
@@ -10038,7 +10317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10052,7 +10331,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -10072,7 +10351,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -10086,7 +10365,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -10106,7 +10385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -10120,7 +10399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>423</v>
       </c>
@@ -10140,7 +10419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -10160,7 +10439,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -10174,7 +10453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -10188,7 +10467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -10202,7 +10481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -10222,7 +10501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -10236,7 +10515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -10256,7 +10535,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>457</v>
       </c>
@@ -10273,7 +10552,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>307</v>
       </c>
@@ -10284,7 +10563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -10304,7 +10583,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -10318,7 +10597,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -10338,7 +10617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -10352,7 +10631,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -10366,7 +10645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -10386,7 +10665,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10400,7 +10679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10414,7 +10693,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>336</v>
       </c>
@@ -10434,7 +10713,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -10448,7 +10727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -10462,7 +10741,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>544</v>
       </c>
@@ -10482,7 +10761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -10496,7 +10775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -10516,7 +10795,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -10536,7 +10815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -10550,7 +10829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -10564,7 +10843,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -10578,7 +10857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -10592,7 +10871,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -10606,7 +10885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -10620,7 +10899,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>529</v>
       </c>
@@ -10640,7 +10919,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>484</v>
       </c>
@@ -10660,7 +10939,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -10674,7 +10953,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>534</v>
       </c>
@@ -10694,7 +10973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -10708,7 +10987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -10722,7 +11001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -10736,7 +11015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -10756,7 +11035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>538</v>
       </c>
@@ -10776,7 +11055,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -10790,7 +11069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -10804,7 +11083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -10818,7 +11097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -10832,7 +11111,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>442</v>
       </c>
@@ -10852,7 +11131,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -10866,7 +11145,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -10880,7 +11159,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -10894,7 +11173,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>551</v>
       </c>
@@ -10914,7 +11193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9411" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E288D4CC-4416-43BE-9E69-694B5B717096}"/>
+  <xr:revisionPtr revIDLastSave="9444" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC80A3E-914A-4A85-993B-4668C0A05244}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="566">
   <si>
     <t>ROUND</t>
   </si>
@@ -1382,9 +1382,6 @@
     <t>Daria Kasatkina (RUSSIA)</t>
   </si>
   <si>
-    <t>ABU DHABI WOMEN'S TENNIS OPEN</t>
-  </si>
-  <si>
     <t>Wang Xiyu (CHINA)</t>
   </si>
   <si>
@@ -1740,6 +1737,12 @@
   </si>
   <si>
     <t>4-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2034,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,7 +2142,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2656,7 +2659,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,7 +4074,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4530,19 +4533,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E18" activeCellId="3" sqref="E2 E7:E12 E15 E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4568,7 +4571,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4577,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4591,18 +4594,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4611,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -4631,7 +4634,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4645,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4659,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4679,7 +4682,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4701,13 +4704,13 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4715,13 +4718,95 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>564</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>565</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>531</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4737,8 +4822,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A11 F1:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4965,20 +5050,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4987,7 +5072,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -4995,15 +5080,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53784860557768921</v>
+        <v>0.53937007874015752</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5012,7 +5097,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5020,15 +5105,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.53784860557768932</v>
+        <v>0.53937007874015752</v>
       </c>
     </row>
   </sheetData>
@@ -9229,18 +9314,18 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9265,7 +9350,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9288,7 +9373,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -9327,7 +9412,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -9336,13 +9421,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9356,7 +9441,7 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -9396,7 +9481,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9410,7 +9495,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -9430,7 +9515,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9458,7 +9543,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -9469,7 +9554,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -9478,7 +9563,7 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -9489,13 +9574,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -9506,7 +9591,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -9526,7 +9611,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -9546,7 +9631,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9560,7 +9645,7 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -9588,7 +9673,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9602,7 +9687,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -9616,13 +9701,13 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
+        <v>463</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>464</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9650,7 +9735,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -9676,7 +9761,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9698,13 +9783,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
+        <v>467</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>468</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -9732,7 +9817,7 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -9746,7 +9831,7 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -9785,7 +9870,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -9800,7 +9885,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -9808,7 +9893,7 @@
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -9836,13 +9921,13 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -9850,7 +9935,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -9864,18 +9949,18 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
+        <v>476</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>477</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -9884,13 +9969,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9898,18 +9983,18 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -9918,13 +10003,13 @@
         <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9938,7 +10023,7 @@
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -9986,7 +10071,7 @@
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -10020,7 +10105,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -10048,13 +10133,13 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -10082,7 +10167,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -10102,7 +10187,7 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10110,13 +10195,13 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -10130,7 +10215,7 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10164,7 +10249,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -10188,7 +10273,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C58"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10223,7 +10308,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -10238,7 +10323,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10299,7 +10384,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -10308,7 +10393,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -10342,13 +10427,13 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>498</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10376,7 +10461,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -10436,7 +10521,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10444,7 +10529,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -10492,7 +10577,7 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -10506,7 +10591,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -10517,7 +10602,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -10526,7 +10611,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -10537,19 +10622,19 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -10574,13 +10659,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -10594,7 +10679,7 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10628,7 +10713,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -10636,7 +10721,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -10656,13 +10741,13 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10670,7 +10755,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -10684,13 +10769,13 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10710,7 +10795,7 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -10718,7 +10803,7 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -10732,18 +10817,18 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -10752,7 +10837,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -10786,13 +10871,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10806,7 +10891,7 @@
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -10820,7 +10905,7 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -10834,13 +10919,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -10862,13 +10947,13 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -10896,12 +10981,12 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -10916,12 +11001,12 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -10936,7 +11021,7 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -10944,18 +11029,18 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>531</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>532</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -10964,7 +11049,7 @@
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -10978,7 +11063,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -10992,7 +11077,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -11006,7 +11091,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -11026,7 +11111,7 @@
         <v>43</v>
       </c>
       <c r="D70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -11037,7 +11122,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -11046,13 +11131,13 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
+        <v>539</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
         <v>540</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -11074,7 +11159,7 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>13</v>
@@ -11088,7 +11173,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -11108,7 +11193,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -11122,13 +11207,13 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -11136,13 +11221,13 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
         <v>546</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -11150,13 +11235,13 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
+        <v>547</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
         <v>548</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -11164,18 +11249,18 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -11198,13 +11283,13 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
+        <v>551</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
         <v>552</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9444" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC80A3E-914A-4A85-993B-4668C0A05244}"/>
+  <xr:revisionPtr revIDLastSave="9493" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5052F9E-2E32-4E01-8FCD-DEE277C20D4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="576">
   <si>
     <t>ROUND</t>
   </si>
@@ -1743,6 +1743,36 @@
   </si>
   <si>
     <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>7-6(6) 7-6(5)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(4) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(11) 6-4</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-3</t>
+  </si>
+  <si>
+    <t>3-6 7-5 6-3</t>
+  </si>
+  <si>
+    <t>Elise Mertens (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2064,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +2689,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,10 +4563,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="3" sqref="E2 E7:E12 E15 E18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4544,7 +4574,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -4807,6 +4837,172 @@
       </c>
       <c r="F20" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>567</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>568</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>560</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>571</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4822,8 +5018,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5050,20 +5246,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5072,15 +5268,15 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
@@ -5088,7 +5284,7 @@
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53937007874015752</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5097,15 +5293,15 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
@@ -5113,12 +5309,12 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.53937007874015752</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F11">
-    <cfRule type="iconSet" priority="40">
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5126,8 +5322,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F3:F11">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7345,8 +7541,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8636,7 +8832,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10272,8 +10468,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9493" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5052F9E-2E32-4E01-8FCD-DEE277C20D4E}"/>
+  <xr:revisionPtr revIDLastSave="9500" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E21FA2F-B076-49F3-B466-0EB7A9DCD0E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="577">
   <si>
     <t>ROUND</t>
   </si>
@@ -1773,6 +1773,9 @@
   </si>
   <si>
     <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(14) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2067,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,7 +2175,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,7 +2692,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.76190476190476186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4563,10 +4566,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="4" sqref="E3 E5 E13 E16 E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5005,6 +5008,20 @@
         <v>478</v>
       </c>
     </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>547</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5018,7 +5035,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5246,20 +5263,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5268,7 +5285,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5276,15 +5293,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.55000000000000004</v>
+        <v>0.55471698113207546</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5293,7 +5310,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5301,15 +5318,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.55000000000000004</v>
+        <v>0.55471698113207546</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9500" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E21FA2F-B076-49F3-B466-0EB7A9DCD0E0}"/>
+  <xr:revisionPtr revIDLastSave="9521" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDB84D5-4534-43AD-AE2F-B6698C62887A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="581">
   <si>
     <t>ROUND</t>
   </si>
@@ -1776,6 +1776,18 @@
   </si>
   <si>
     <t>7-6(14) 6-2</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
+  </si>
+  <si>
+    <t>Weronika Falkowska (POLAND)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2079,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,7 +2187,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,7 +2704,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76190476190476186</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,10 +4578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="4" sqref="E3 E5 E13 E16 E34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" activeCellId="5" sqref="E3 E5 E13 E16 E34 E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4579,7 +4591,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4994,7 +5006,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5008,7 +5020,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5020,6 +5032,68 @@
       </c>
       <c r="F34" t="s">
         <v>576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>578</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>580</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>565</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +5110,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5263,20 +5337,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.76190476190476186</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5285,7 +5359,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5293,15 +5367,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.55471698113207546</v>
+        <v>0.55597014925373134</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5310,7 +5384,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5318,15 +5392,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.55471698113207546</v>
+        <v>0.55597014925373134</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9521" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FDB84D5-4534-43AD-AE2F-B6698C62887A}"/>
+  <xr:revisionPtr revIDLastSave="9531" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9555999-39CA-4B85-BBF6-4919DFA8E2DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="582">
   <si>
     <t>ROUND</t>
   </si>
@@ -323,9 +323,6 @@
     <t>6-1 3-6 6-2</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>6-4 3-6 6-0</t>
   </si>
   <si>
@@ -1788,6 +1785,12 @@
   </si>
   <si>
     <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-2</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2190,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,7 +2707,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4534,7 +4537,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -4543,7 +4546,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4557,13 +4560,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4578,10 +4581,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" activeCellId="5" sqref="E3 E5 E13 E16 E34 E40"/>
+      <selection activeCell="A42" activeCellId="9" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4616,7 +4619,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4625,13 +4628,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4639,18 +4642,18 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4659,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -4679,7 +4682,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4693,7 +4696,7 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4707,13 +4710,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4721,13 +4724,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4735,7 +4738,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -4749,13 +4752,13 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,18 +4766,18 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -4797,7 +4800,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -4817,7 +4820,7 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4845,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>58</v>
@@ -4865,13 +4868,13 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4879,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -4893,13 +4896,13 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4913,7 +4916,7 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4921,7 +4924,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -4935,13 +4938,13 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4955,13 +4958,13 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
         <v>571</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4969,13 +4972,13 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -4997,13 +5000,13 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5011,13 +5014,13 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5025,24 +5028,24 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
@@ -5073,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
@@ -5087,13 +5090,33 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>384</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>580</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5110,7 +5133,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5337,7 +5360,7 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5346,11 +5369,11 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,7 +5382,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5371,11 +5394,11 @@
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.55597014925373134</v>
+        <v>0.55223880597014929</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5384,7 +5407,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5396,11 +5419,11 @@
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.55597014925373134</v>
+        <v>0.55223880597014929</v>
       </c>
     </row>
   </sheetData>
@@ -5470,7 +5493,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5479,7 +5502,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -5493,7 +5516,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -5504,7 +5527,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -5513,13 +5536,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5527,7 +5550,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -5541,7 +5564,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -5555,13 +5578,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5569,7 +5592,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -5583,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -5597,13 +5620,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5660,7 +5683,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5669,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -5683,18 +5706,18 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5703,7 +5726,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -5717,7 +5740,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -5731,13 +5754,13 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5745,13 +5768,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5759,7 +5782,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -5773,18 +5796,18 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5793,18 +5816,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -5813,7 +5836,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5827,7 +5850,7 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -5841,13 +5864,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5855,7 +5878,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -5869,13 +5892,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,18 +5906,18 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -5903,13 +5926,13 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5917,13 +5940,13 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5931,7 +5954,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -5945,7 +5968,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -5956,7 +5979,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -5965,13 +5988,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5979,13 +6002,13 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5993,7 +6016,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -6007,7 +6030,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -6018,7 +6041,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -6027,13 +6050,13 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,13 +6064,13 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6055,18 +6078,18 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -6075,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6089,13 +6112,13 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,7 +6126,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6117,13 +6140,13 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -6131,7 +6154,7 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -6190,7 +6213,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6199,13 +6222,13 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>166</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6213,18 +6236,18 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -6233,7 +6256,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -6247,13 +6270,13 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6261,13 +6284,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6275,13 +6298,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6289,7 +6312,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -6300,7 +6323,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -6309,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6320,7 +6343,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -6329,7 +6352,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -6343,7 +6366,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6357,13 +6380,13 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6371,18 +6394,18 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -6391,18 +6414,18 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>186</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -6411,7 +6434,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -6425,13 +6448,13 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6439,7 +6462,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6453,18 +6476,18 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -6473,13 +6496,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6487,7 +6510,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -6501,7 +6524,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -6515,7 +6538,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -6529,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -6540,7 +6563,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -6549,7 +6572,7 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -6563,13 +6586,13 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6577,7 +6600,7 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -6591,18 +6614,18 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -6611,7 +6634,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -6631,7 +6654,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -6639,7 +6662,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6653,7 +6676,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -6664,7 +6687,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -6673,7 +6696,7 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -6732,7 +6755,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6741,7 +6764,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -6755,7 +6778,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -6769,7 +6792,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -6783,7 +6806,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -6797,13 +6820,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6822,7 +6845,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -6831,7 +6854,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6845,7 +6868,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -6859,7 +6882,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -6873,18 +6896,18 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -6893,7 +6916,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6907,7 +6930,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -6921,13 +6944,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6935,7 +6958,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6949,7 +6972,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -6960,7 +6983,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -6969,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6980,7 +7003,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -6989,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -7003,13 +7026,13 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7023,7 +7046,7 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7031,13 +7054,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7045,18 +7068,18 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -7065,7 +7088,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -7085,13 +7108,13 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7099,7 +7122,7 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -7113,13 +7136,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7133,12 +7156,12 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -7161,18 +7184,18 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -7181,7 +7204,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -7195,7 +7218,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -7206,7 +7229,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -7215,13 +7238,13 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7229,13 +7252,13 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7243,7 +7266,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -7254,7 +7277,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -7263,7 +7286,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -7274,7 +7297,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -7283,13 +7306,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>262</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7297,18 +7320,18 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -7317,18 +7340,18 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -7337,13 +7360,13 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7351,13 +7374,13 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7371,7 +7394,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -7385,7 +7408,7 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -7405,13 +7428,13 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7419,18 +7442,18 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -7439,7 +7462,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -7450,7 +7473,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -7459,7 +7482,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -7470,7 +7493,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -7479,13 +7502,13 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7493,7 +7516,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -7507,7 +7530,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -7518,7 +7541,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -7527,13 +7550,13 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7541,18 +7564,18 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -7561,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -7575,7 +7598,7 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
@@ -7586,7 +7609,7 @@
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -7595,7 +7618,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -7609,7 +7632,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -7632,7 +7655,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -7677,7 +7700,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -7691,7 +7714,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7705,13 +7728,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7719,7 +7742,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -7733,7 +7756,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -7753,7 +7776,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -7764,7 +7787,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -7773,18 +7796,18 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -7807,13 +7830,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7821,7 +7844,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7835,7 +7858,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -7849,18 +7872,18 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -7869,18 +7892,18 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -7889,7 +7912,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -7903,7 +7926,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7917,13 +7940,13 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7931,13 +7954,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7945,18 +7968,18 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -7965,13 +7988,13 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7979,7 +8002,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -7993,7 +8016,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -8007,13 +8030,13 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -8021,7 +8044,7 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -8032,7 +8055,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -8041,13 +8064,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -8055,18 +8078,18 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -8075,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -8086,7 +8109,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -8095,13 +8118,13 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -8109,13 +8132,13 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,13 +8146,13 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -8137,13 +8160,13 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -8151,18 +8174,18 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -8171,13 +8194,13 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -8185,7 +8208,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -8196,7 +8219,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -8205,7 +8228,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -8219,13 +8242,13 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -8233,13 +8256,13 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -8247,18 +8270,18 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -8267,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -8278,7 +8301,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
@@ -8287,13 +8310,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
         <v>345</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8301,13 +8324,13 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -8315,7 +8338,7 @@
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -8329,7 +8352,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -8343,7 +8366,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -8357,7 +8380,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -8377,7 +8400,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -8391,13 +8414,13 @@
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8405,18 +8428,18 @@
         <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
@@ -8425,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -8439,18 +8462,18 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
@@ -8459,13 +8482,13 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8473,13 +8496,13 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8487,13 +8510,13 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8501,7 +8524,7 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -8515,7 +8538,7 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -8526,7 +8549,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -8535,7 +8558,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -8549,13 +8572,13 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8569,7 +8592,7 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -8589,7 +8612,7 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -8603,7 +8626,7 @@
         <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -8617,7 +8640,7 @@
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
@@ -8642,7 +8665,7 @@
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -8651,7 +8674,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -8665,13 +8688,13 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8679,13 +8702,13 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8693,7 +8716,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
@@ -8707,7 +8730,7 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>14</v>
@@ -8718,7 +8741,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -8727,18 +8750,18 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -8747,13 +8770,13 @@
         <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8761,13 +8784,13 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8775,13 +8798,13 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8789,18 +8812,18 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
@@ -8809,7 +8832,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
@@ -8823,13 +8846,13 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8837,7 +8860,7 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>14</v>
@@ -8848,7 +8871,7 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B100" t="s">
         <v>19</v>
@@ -8857,13 +8880,13 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
         <v>399</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -8871,7 +8894,7 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>13</v>
@@ -8885,13 +8908,13 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -8958,7 +8981,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8967,13 +8990,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8981,7 +9004,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8995,13 +9018,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>405</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9009,7 +9032,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -9023,7 +9046,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -9034,7 +9057,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9071,13 +9094,13 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9085,13 +9108,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -9099,13 +9122,13 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9119,7 +9142,7 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -9133,7 +9156,7 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -9147,7 +9170,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -9158,7 +9181,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -9167,7 +9190,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -9181,7 +9204,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -9195,13 +9218,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9209,13 +9232,13 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9223,7 +9246,7 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -9234,7 +9257,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -9243,13 +9266,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
         <v>428</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9257,7 +9280,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -9277,7 +9300,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -9285,13 +9308,13 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -9299,18 +9322,18 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -9319,13 +9342,13 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -9333,13 +9356,13 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -9347,7 +9370,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>58</v>
@@ -9367,13 +9390,13 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9387,13 +9410,13 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9401,7 +9424,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -9412,7 +9435,7 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -9421,13 +9444,13 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -9441,7 +9464,7 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -9449,13 +9472,13 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9469,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -9489,7 +9512,7 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -9497,7 +9520,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -9511,7 +9534,7 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -9525,18 +9548,18 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -9545,13 +9568,13 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -9559,18 +9582,18 @@
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -9579,13 +9602,13 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -9601,8 +9624,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9637,7 +9660,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9646,7 +9669,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -9660,7 +9683,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -9674,7 +9697,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -9688,18 +9711,18 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -9708,13 +9731,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -9728,13 +9751,13 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9742,7 +9765,7 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -9753,7 +9776,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -9762,18 +9785,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -9782,13 +9805,13 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -9796,13 +9819,13 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9816,7 +9839,7 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -9830,7 +9853,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -9841,7 +9864,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -9850,24 +9873,24 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -9878,18 +9901,18 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -9898,7 +9921,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -9912,18 +9935,18 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -9932,7 +9955,7 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -9946,13 +9969,13 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -9960,7 +9983,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9974,7 +9997,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -9988,13 +10011,13 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
+        <v>462</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
         <v>463</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10008,13 +10031,13 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -10022,7 +10045,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -10042,13 +10065,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -10056,13 +10079,13 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -10070,13 +10093,13 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
+        <v>466</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>467</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10084,7 +10107,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -10104,7 +10127,7 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -10118,7 +10141,7 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -10132,7 +10155,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -10146,18 +10169,18 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -10166,13 +10189,13 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -10180,7 +10203,7 @@
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -10194,7 +10217,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -10208,13 +10231,13 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -10222,7 +10245,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -10236,18 +10259,18 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
+        <v>475</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
         <v>476</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -10256,13 +10279,13 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -10270,18 +10293,18 @@
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -10290,13 +10313,13 @@
         <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10310,7 +10333,7 @@
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -10324,7 +10347,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -10338,13 +10361,13 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10358,7 +10381,7 @@
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -10372,7 +10395,7 @@
         <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -10386,18 +10409,18 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -10406,7 +10429,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -10420,13 +10443,13 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -10434,7 +10457,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -10454,7 +10477,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -10468,13 +10491,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -10482,13 +10505,13 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -10496,13 +10519,13 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10516,18 +10539,18 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
@@ -10536,7 +10559,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -10559,18 +10582,18 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D22"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10595,7 +10618,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -10604,13 +10627,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10632,7 +10655,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -10646,7 +10669,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -10660,7 +10683,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -10671,7 +10694,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -10680,7 +10703,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -10694,7 +10717,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>58</v>
@@ -10714,13 +10737,13 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>497</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -10728,18 +10751,18 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -10748,7 +10771,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -10773,7 +10796,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -10782,7 +10805,7 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -10802,13 +10825,13 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10816,7 +10839,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -10830,7 +10853,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -10844,7 +10867,7 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -10864,7 +10887,7 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -10878,7 +10901,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -10889,7 +10912,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -10898,35 +10921,35 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -10946,13 +10969,13 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -10960,18 +10983,18 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -10980,7 +11003,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -10994,13 +11017,13 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -11008,18 +11031,18 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -11028,13 +11051,13 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -11042,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -11056,18 +11079,18 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -11076,13 +11099,13 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -11090,7 +11113,7 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -11104,18 +11127,18 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -11124,7 +11147,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -11138,7 +11161,7 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -11158,13 +11181,13 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11178,7 +11201,7 @@
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -11192,7 +11215,7 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -11206,13 +11229,13 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -11220,7 +11243,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -11234,13 +11257,13 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -11248,7 +11271,7 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -11262,18 +11285,18 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -11282,18 +11305,18 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -11308,7 +11331,7 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -11316,18 +11339,18 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>530</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
         <v>531</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -11336,7 +11359,7 @@
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -11350,13 +11373,13 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -11364,7 +11387,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -11378,7 +11401,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -11398,7 +11421,7 @@
         <v>43</v>
       </c>
       <c r="D70" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -11409,7 +11432,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -11418,13 +11441,13 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
+        <v>538</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
         <v>539</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -11446,7 +11469,7 @@
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>13</v>
@@ -11460,7 +11483,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -11474,18 +11497,18 @@
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
@@ -11494,13 +11517,13 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -11508,13 +11531,13 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
+        <v>544</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
         <v>545</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -11522,13 +11545,13 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
+        <v>546</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
         <v>547</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -11536,18 +11559,18 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -11570,13 +11593,13 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
+        <v>550</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
         <v>551</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9531" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9555999-39CA-4B85-BBF6-4919DFA8E2DA}"/>
+  <xr:revisionPtr revIDLastSave="9552" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4D0EC6-542B-4DD4-A0E8-E7B478856A37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="588">
   <si>
     <t>ROUND</t>
   </si>
@@ -1791,6 +1791,24 @@
   </si>
   <si>
     <t>7-5 4-6 6-2</t>
+  </si>
+  <si>
+    <t>6-3, 6-3</t>
+  </si>
+  <si>
+    <t>Jasmine Paolini (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>4-3 RETIRED</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>2-6 7-6(3) 2-2 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2100,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2725,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70833333333333337</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4581,10 +4599,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" activeCellId="9" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="6" sqref="E3 E5 E13 E16 E34 E40 E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4592,9 +4610,9 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,6 +5135,96 @@
       </c>
       <c r="F42" t="s">
         <v>581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>570</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>491</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>396</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>586</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5241,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5360,20 +5468,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5382,15 +5490,15 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
@@ -5398,7 +5506,7 @@
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.55223880597014929</v>
+        <v>0.56204379562043794</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5407,15 +5515,15 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>26.8</v>
+        <v>27.4</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
@@ -5423,7 +5531,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.55223880597014929</v>
+        <v>0.56204379562043794</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9552" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4D0EC6-542B-4DD4-A0E8-E7B478856A37}"/>
+  <xr:revisionPtr revIDLastSave="9567" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4E93CB-710C-4598-9186-25E2B77D1AF7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="591">
   <si>
     <t>ROUND</t>
   </si>
@@ -1793,9 +1793,6 @@
     <t>7-5 4-6 6-2</t>
   </si>
   <si>
-    <t>6-3, 6-3</t>
-  </si>
-  <si>
     <t>Jasmine Paolini (ITALY)</t>
   </si>
   <si>
@@ -1809,6 +1806,18 @@
   </si>
   <si>
     <t>2-6 7-6(3) 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>ROLAND GARROS</t>
+  </si>
+  <si>
+    <t>Brenda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo (SPAIN)</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2109,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,7 +2734,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76666666666666672</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,9 +4608,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" activeCellId="6" sqref="E3 E5 E13 E16 E34 E40 E42"/>
     </sheetView>
   </sheetViews>
@@ -5148,13 +5157,13 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
+        <v>582</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
         <v>583</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5168,7 +5177,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5182,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5196,7 +5205,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5213,18 +5222,66 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>587</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>588</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>589</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>590</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5241,7 +5298,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5468,20 +5525,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5490,7 +5547,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5498,7 +5555,7 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
@@ -5506,7 +5563,7 @@
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56204379562043794</v>
+        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5515,7 +5572,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5523,7 +5580,7 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
@@ -5531,7 +5588,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56204379562043794</v>
+        <v>0.56521739130434789</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9567" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4E93CB-710C-4598-9186-25E2B77D1AF7}"/>
+  <xr:revisionPtr revIDLastSave="9578" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FDB272-02D2-4E93-9EAF-5204CF0541B0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="593">
   <si>
     <t>ROUND</t>
   </si>
@@ -1818,6 +1818,12 @@
   </si>
   <si>
     <t>Sara Sorribes Tormo (SPAIN)</t>
+  </si>
+  <si>
+    <t>Polina Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-7(1) 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2115,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,7 +2223,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,7 +2740,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78125</c:v>
+                  <c:v>0.75757575757575757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,10 +4228,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4608,10 +4610,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" activeCellId="6" sqref="E3 E5 E13 E16 E34 E40 E42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" activeCellId="12" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42 A44 A51 A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5282,6 +5284,40 @@
       </c>
       <c r="F53" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>591</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5525,20 +5561,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.78125</v>
+        <v>0.75757575757575757</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5547,7 +5583,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5555,15 +5591,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56521739130434778</v>
+        <v>0.56317689530685922</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5572,7 +5608,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5580,15 +5616,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56521739130434789</v>
+        <v>0.56317689530685922</v>
       </c>
     </row>
   </sheetData>
@@ -10747,7 +10783,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9261" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73E3C21-FD90-4B80-98BD-81D6D24F06D6}"/>
+  <xr:revisionPtr revIDLastSave="9552" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4D0EC6-542B-4DD4-A0E8-E7B478856A37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="2020" sheetId="27" r:id="rId7"/>
     <sheet name="2021" sheetId="28" r:id="rId8"/>
     <sheet name="2022" sheetId="31" r:id="rId9"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId10"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId11"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId12"/>
+    <sheet name="2023" sheetId="35" r:id="rId10"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId12"/>
+    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="588">
   <si>
     <t>ROUND</t>
   </si>
@@ -322,9 +323,6 @@
     <t>6-1 3-6 6-2</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>6-4 3-6 6-0</t>
   </si>
   <si>
@@ -1381,9 +1379,6 @@
     <t>Daria Kasatkina (RUSSIA)</t>
   </si>
   <si>
-    <t>ABU DHABI WOMEN'S TENNIS OPEN</t>
-  </si>
-  <si>
     <t>Wang Xiyu (CHINA)</t>
   </si>
   <si>
@@ -1679,6 +1674,141 @@
   </si>
   <si>
     <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Aliaksandra Sasnovich (BELARUS)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 7-5</t>
+  </si>
+  <si>
+    <t>Petra Kvitová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>3-6 7-6(4) 6-4</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Jessica Pegula (USA)</t>
+  </si>
+  <si>
+    <t>2-6 6-3 7-6(8)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-2 6-3</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>Marta Kostyuk (UKRAINE)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 2</t>
+  </si>
+  <si>
+    <t>Kaja Juvan (SLOVENIA)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>6-4 6-4 </t>
+  </si>
+  <si>
+    <t>7-6(4) 6-3 </t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>ABU DHABI OPEN</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>7-6(6) 7-6(5)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(4) 2-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(11) 6-4</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-3</t>
+  </si>
+  <si>
+    <t>3-6 7-5 6-3</t>
+  </si>
+  <si>
+    <t>Elise Mertens (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(14) 6-2</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
+  </si>
+  <si>
+    <t>Weronika Falkowska (POLAND)</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>7-5 4-6 6-2</t>
+  </si>
+  <si>
+    <t>6-3, 6-3</t>
+  </si>
+  <si>
+    <t>Jasmine Paolini (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>4-3 RETIRED</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>2-6 7-6(3) 2-2 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -1832,13 +1962,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Elena Rybakina </a:t>
+              <a:t>Elena Rybakina (KAZAKHSTAN): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>(KAZAKHSTAN): YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1904,67 +2029,85 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$3:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$3:$D$9</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000000-1A8A-4BB5-BACF-C35A15B6A93A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1994,67 +2137,85 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$3:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$3:$E$9</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96B3-4FF8-BDAB-541A9B5AE252}"/>
+              <c16:uniqueId val="{00000001-1A8A-4BB5-BACF-C35A15B6A93A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2068,11 +2229,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2048266703"/>
-        <c:axId val="2048246735"/>
+        <c:axId val="1640145360"/>
+        <c:axId val="1640162000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048266703"/>
+        <c:axId val="1640145360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048246735"/>
+        <c:crossAx val="1640162000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048246735"/>
+        <c:axId val="1640162000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048266703"/>
+        <c:crossAx val="1640145360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2394,11 +2555,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Elena Rybakina (KAZAKHSTAN)</a:t>
+              <a:t>Elena Rybakina (KAZAKHSTAN): Winning</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>: Winning Percentile Range</a:t>
+              <a:t> Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2488,66 +2649,83 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$3:$A$9</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$3:$F$9</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.69565217391304346</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.52380952380952384</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.36363636363636365</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.63157894736842102</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.65517241379310343</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.35294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51282051282051277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2733,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-91A9-4C16-A292-26D1475FB471}"/>
+              <c16:uniqueId val="{00000000-581C-4551-94F7-14FDB7C7EF63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2569,11 +2747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335326623"/>
-        <c:axId val="335323295"/>
+        <c:axId val="1836121152"/>
+        <c:axId val="1836119904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335326623"/>
+        <c:axId val="1836121152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335323295"/>
+        <c:crossAx val="1836119904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2679,7 +2857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335323295"/>
+        <c:axId val="1836119904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,7 +2963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335326623"/>
+        <c:crossAx val="1836121152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3444,7 +3622,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3552,11 +3730,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3567,11 +3740,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3603,9 +3771,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3960,7 +4125,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3828ED73-5264-44EE-9AC5-49A8D01EE845}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3972,14 +4137,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EB196088-D968-4675-9941-431035E29CF0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -3987,13 +4151,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53857B62-11C3-4FF7-8F8D-45BED17D8616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7144F85-6A94-579F-02D4-24EC3078DE2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4020,13 +4184,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EEC9C3-0274-4898-84EE-9C2B23130AC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A22B309-CD15-4427-C923-C36838CB05DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,6 +4211,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4355,17 +4523,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4385,9 +4553,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -4396,7 +4564,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4405,21 +4573,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4427,27 +4595,666 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95E0E0B-88A8-4A71-8563-1370D4E88617}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="6" sqref="E3 E5 E13 E16 E34 E40 E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>524</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>530</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>566</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>567</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>559</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>566</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>573</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>574</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>550</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>546</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>578</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>579</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>576</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>564</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>580</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>570</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>491</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>396</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>586</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4467,7 +5274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -4484,11 +5291,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4509,7 +5316,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -4530,7 +5337,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4551,7 +5358,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4572,7 +5379,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4593,7 +5400,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4614,7 +5421,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -4635,80 +5442,101 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.51428571428571423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+        <v>0.51282051282051277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <f>SUM(B2:B10)</f>
-        <v>123</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:E11" si="1">SUM(C2:C10)</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="F11" s="7">
-        <f>(D11-E11)/D11</f>
-        <v>0.53749999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B12" s="2">
-        <f>AVERAGE(B2:B10)</f>
-        <v>13.666666666666666</v>
+        <f>SUM(B2:B11)</f>
+        <v>136</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:E12" si="2">AVERAGE(C2:C10)</f>
-        <v>0.33333333333333331</v>
+        <f>SUM(C2:C11)</f>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>26.666666666666668</v>
+        <f>SUM(D2:D11)</f>
+        <v>274</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>12.333333333333334</v>
+        <f>SUM(E2:E11)</f>
+        <v>120</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.53749999999999998</v>
+        <v>0.56204379562043794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="2">
+        <f>AVERAGE(B2:B11)</f>
+        <v>13.6</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>27.4</v>
+      </c>
+      <c r="E13" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="7">
+        <f>(D13-E13)/D13</f>
+        <v>0.56204379562043794</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F10">
-    <cfRule type="iconSet" priority="40">
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4716,8 +5544,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F10">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F3:F11">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4741,17 +5569,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4771,9 +5599,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4782,7 +5610,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4791,12 +5619,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -4805,9 +5633,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -4816,21 +5644,21 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -4839,12 +5667,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
@@ -4853,26 +5681,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4881,12 +5709,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -4895,24 +5723,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4931,17 +5759,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4961,9 +5789,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4972,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -4981,23 +5809,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5006,7 +5834,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -5015,12 +5843,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -5029,40 +5857,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -5071,23 +5899,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>126</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -5096,18 +5924,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>129</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>130</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -5116,7 +5944,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5125,12 +5953,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -5139,26 +5967,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -5167,37 +5995,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -5206,35 +6034,35 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -5243,12 +6071,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -5257,9 +6085,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -5268,35 +6096,35 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -5305,12 +6133,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -5319,9 +6147,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -5330,46 +6158,46 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>156</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>157</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -5378,7 +6206,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -5387,26 +6215,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -5415,26 +6243,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -5461,17 +6289,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5491,9 +6319,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -5502,32 +6330,32 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -5536,7 +6364,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -5545,54 +6373,54 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -5601,9 +6429,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -5612,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5621,9 +6449,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -5632,7 +6460,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -5641,12 +6469,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -5655,37 +6483,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -5694,18 +6522,18 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>188</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -5714,7 +6542,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -5723,26 +6551,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -5751,23 +6579,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>194</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>195</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -5776,21 +6604,21 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5799,12 +6627,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -5813,12 +6641,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -5827,12 +6655,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>14</v>
@@ -5841,9 +6669,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -5852,7 +6680,7 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -5861,26 +6689,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -5889,23 +6717,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>207</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>208</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -5914,7 +6742,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -5923,7 +6751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -5934,15 +6762,15 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -5951,12 +6779,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -5965,9 +6793,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -5976,7 +6804,7 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
@@ -6003,17 +6831,17 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6033,9 +6861,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -6044,7 +6872,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -6053,12 +6881,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -6067,12 +6895,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -6081,12 +6909,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -6095,21 +6923,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -6123,9 +6951,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -6134,7 +6962,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6143,12 +6971,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -6157,12 +6985,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -6171,23 +6999,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>225</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -6196,7 +7024,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6205,12 +7033,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -6219,26 +7047,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6247,12 +7075,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -6261,9 +7089,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -6272,7 +7100,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -6281,9 +7109,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -6292,7 +7120,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6301,21 +7129,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -6326,40 +7154,40 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -6368,7 +7196,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
@@ -6377,7 +7205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -6388,21 +7216,21 @@
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -6411,21 +7239,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -6436,12 +7264,12 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -6459,23 +7287,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>249</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -6484,7 +7312,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
@@ -6493,12 +7321,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>14</v>
@@ -6507,9 +7335,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -6518,35 +7346,35 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>14</v>
@@ -6555,9 +7383,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -6566,7 +7394,7 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
@@ -6575,9 +7403,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -6586,32 +7414,32 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -6620,18 +7448,18 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -6640,30 +7468,30 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -6674,7 +7502,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -6683,12 +7511,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -6697,7 +7525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6708,32 +7536,32 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
       <c r="D59" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>275</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>276</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -6742,7 +7570,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
@@ -6751,9 +7579,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
@@ -6762,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>14</v>
@@ -6771,9 +7599,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -6782,21 +7610,21 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
@@ -6805,12 +7633,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -6819,9 +7647,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
@@ -6830,32 +7658,32 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -6864,7 +7692,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
@@ -6873,12 +7701,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>14</v>
@@ -6887,9 +7715,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -6898,7 +7726,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -6907,12 +7735,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -6935,21 +7763,21 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6969,7 +7797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -6980,7 +7808,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -6989,12 +7817,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -7003,26 +7831,26 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -7031,12 +7859,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -7045,7 +7873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -7056,7 +7884,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -7065,9 +7893,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -7076,18 +7904,18 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>302</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>303</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -7105,26 +7933,26 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7133,12 +7961,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -7147,23 +7975,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>309</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -7172,18 +8000,18 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -7192,7 +8020,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -7201,12 +8029,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -7215,51 +8043,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>317</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -7268,21 +8096,21 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -7291,12 +8119,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -7305,26 +8133,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -7333,9 +8161,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -7344,32 +8172,32 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -7378,7 +8206,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -7387,9 +8215,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -7398,74 +8226,74 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>331</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>332</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -7474,21 +8302,21 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>14</v>
@@ -7497,9 +8325,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -7508,7 +8336,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -7517,51 +8345,51 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -7570,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -7579,9 +8407,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
@@ -7590,35 +8418,35 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
         <v>345</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -7627,12 +8455,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
@@ -7641,12 +8469,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -7655,12 +8483,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -7669,7 +8497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -7680,7 +8508,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -7689,37 +8517,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
@@ -7728,7 +8556,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -7737,23 +8565,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
@@ -7762,49 +8590,49 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
@@ -7813,12 +8641,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -7827,9 +8655,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -7838,7 +8666,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
@@ -7847,21 +8675,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -7872,7 +8700,7 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -7881,7 +8709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -7892,7 +8720,7 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>13</v>
@@ -7901,12 +8729,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>13</v>
@@ -7915,12 +8743,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>13</v>
@@ -7929,7 +8757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -7943,9 +8771,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -7954,7 +8782,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>13</v>
@@ -7963,40 +8791,40 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
@@ -8005,12 +8833,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>14</v>
@@ -8019,9 +8847,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -8030,18 +8858,18 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>385</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -8050,60 +8878,60 @@
         <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
       <c r="D94" t="s">
+        <v>391</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>392</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>393</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
@@ -8112,7 +8940,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
@@ -8121,26 +8949,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>14</v>
@@ -8149,9 +8977,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B100" t="s">
         <v>19</v>
@@ -8160,21 +8988,21 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
         <v>399</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>13</v>
@@ -8183,21 +9011,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -8225,21 +9053,21 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8259,9 +9087,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8270,21 +9098,21 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8293,26 +9121,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>405</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -8321,12 +9149,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -8335,9 +9163,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -8355,7 +9183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -8369,49 +9197,49 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -8422,7 +9250,7 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -8431,12 +9259,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -8445,12 +9273,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -8459,9 +9287,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -8470,7 +9298,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8479,12 +9307,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -8493,40 +9321,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -8535,9 +9363,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -8546,21 +9374,21 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
         <v>428</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -8569,7 +9397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -8580,40 +9408,40 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -8622,35 +9450,35 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>58</v>
@@ -8659,7 +9487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -8670,16 +9498,16 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -8690,21 +9518,21 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -8713,9 +9541,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -8724,16 +9552,16 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -8744,24 +9572,24 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -8772,7 +9600,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -8781,7 +9609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8792,15 +9620,15 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
@@ -8809,12 +9637,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
@@ -8823,23 +9651,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -8848,32 +9676,32 @@
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>442</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -8882,13 +9710,13 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8904,21 +9732,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8938,9 +9766,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -8949,7 +9777,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -8958,12 +9786,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -8972,12 +9800,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -8986,23 +9814,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -9011,16 +9839,16 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -9031,21 +9859,21 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -9054,9 +9882,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -9065,18 +9893,18 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -9085,30 +9913,30 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -9119,7 +9947,7 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -9128,12 +9956,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -9142,9 +9970,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -9153,24 +9981,24 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -9179,20 +10007,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -9201,7 +10029,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -9210,23 +10038,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -9235,7 +10063,7 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -9244,26 +10072,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -9272,12 +10100,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -9286,21 +10114,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -9311,21 +10139,21 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>14</v>
@@ -9334,7 +10162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -9345,49 +10173,49 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
@@ -9396,7 +10224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -9407,7 +10235,7 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
@@ -9416,12 +10244,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
@@ -9430,12 +10258,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -9444,23 +10272,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -9469,21 +10297,21 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
@@ -9492,12 +10320,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
@@ -9506,26 +10334,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
@@ -9534,23 +10362,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>480</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -9559,32 +10387,32 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -9593,16 +10421,16 @@
         <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -9613,7 +10441,7 @@
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
@@ -9622,12 +10450,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
@@ -9636,21 +10464,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -9661,7 +10489,7 @@
         <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
@@ -9670,12 +10498,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
@@ -9684,23 +10512,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -9709,7 +10537,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -9718,26 +10546,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>14</v>
@@ -9746,7 +10574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -9757,7 +10585,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
@@ -9766,49 +10594,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -9819,18 +10647,18 @@
         <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
@@ -9839,7 +10667,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -9860,23 +10688,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E76" activeCellId="16" sqref="E6 E12 E17 E22 E25 E27 E33 E37 E41 E45 E48 E50 E60 E63 E68 E70 E76"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9896,9 +10724,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -9907,16 +10735,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9930,12 +10758,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -9944,12 +10772,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -9958,12 +10786,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -9972,9 +10800,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -9983,7 +10811,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -9992,12 +10820,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>58</v>
@@ -10006,7 +10834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -10017,32 +10845,32 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -10051,7 +10879,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -10060,7 +10888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -10074,9 +10902,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -10085,7 +10913,7 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -10094,7 +10922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -10105,21 +10933,21 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -10128,12 +10956,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -10142,12 +10970,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -10156,7 +10984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -10167,7 +10995,7 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -10176,12 +11004,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -10190,9 +11018,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -10201,35 +11029,35 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -10238,7 +11066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -10249,32 +11077,32 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
         <v>508</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -10283,7 +11111,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>13</v>
@@ -10292,37 +11120,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -10331,21 +11159,21 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
+        <v>512</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
         <v>514</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
@@ -10354,23 +11182,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -10379,21 +11207,21 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>13</v>
@@ -10402,23 +11230,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -10427,7 +11255,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
@@ -10436,12 +11264,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -10450,7 +11278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -10461,16 +11289,16 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -10481,7 +11309,7 @@
         <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
@@ -10490,12 +11318,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
@@ -10504,26 +11332,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
@@ -10532,26 +11360,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
@@ -10560,23 +11388,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>529</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
@@ -10585,18 +11413,18 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
         <v>19</v>
@@ -10611,26 +11439,26 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
+        <v>530</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>532</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>534</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -10639,7 +11467,7 @@
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
@@ -10648,26 +11476,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
@@ -10676,12 +11504,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>14</v>
@@ -10690,7 +11518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -10701,7 +11529,7 @@
         <v>43</v>
       </c>
       <c r="D70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
@@ -10710,9 +11538,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
@@ -10721,16 +11549,16 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -10744,12 +11572,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>13</v>
@@ -10758,12 +11586,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>13</v>
@@ -10772,18 +11600,114 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>539</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>441</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>518</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>544</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>546</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>446</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>549</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>550</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9552" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4D0EC6-542B-4DD4-A0E8-E7B478856A37}"/>
+  <xr:revisionPtr revIDLastSave="9578" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FDB272-02D2-4E93-9EAF-5204CF0541B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="593">
   <si>
     <t>ROUND</t>
   </si>
@@ -1793,9 +1793,6 @@
     <t>7-5 4-6 6-2</t>
   </si>
   <si>
-    <t>6-3, 6-3</t>
-  </si>
-  <si>
     <t>Jasmine Paolini (ITALY)</t>
   </si>
   <si>
@@ -1809,6 +1806,24 @@
   </si>
   <si>
     <t>2-6 7-6(3) 2-2 RETIRED</t>
+  </si>
+  <si>
+    <t>ROLAND GARROS</t>
+  </si>
+  <si>
+    <t>Brenda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Linda Nosková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo (SPAIN)</t>
+  </si>
+  <si>
+    <t>Polina Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-7(1) 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2115,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2223,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,7 +2740,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76666666666666672</c:v>
+                  <c:v>0.75757575757575757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,10 +4228,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4599,10 +4610,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="6" sqref="E3 E5 E13 E16 E34 E40 E42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" activeCellId="12" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42 A44 A51 A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5148,13 +5159,13 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
+        <v>582</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
         <v>583</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5168,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5182,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5196,7 +5207,7 @@
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5213,18 +5224,100 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>587</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>588</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>589</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>590</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>591</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5241,7 +5334,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5468,20 +5561,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.75757575757575757</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5490,7 +5583,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5498,15 +5591,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56204379562043794</v>
+        <v>0.56317689530685922</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5515,7 +5608,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5523,15 +5616,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56204379562043794</v>
+        <v>0.56317689530685922</v>
       </c>
     </row>
   </sheetData>
@@ -10690,7 +10783,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9578" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FDB272-02D2-4E93-9EAF-5204CF0541B0}"/>
+  <xr:revisionPtr revIDLastSave="9597" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C323FFCB-A412-4F38-B9D8-41902207363F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="600">
   <si>
     <t>ROUND</t>
   </si>
@@ -1824,6 +1824,27 @@
   </si>
   <si>
     <t>6-7(1) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Shelby Rogers (USA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>Alizé Cornet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Katie Boulter (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>4-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Ons Jabeur (TUNISIA)</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-4 6-1</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2136,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,7 +2244,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,7 +2761,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75757575757575757</c:v>
+                  <c:v>0.7567567567567568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,6 +4249,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4610,10 +4635,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" activeCellId="12" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42 A44 A51 A55"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E62" activeCellId="8" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5318,6 +5343,82 @@
       </c>
       <c r="F56" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>593</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>595</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>596</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>564</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>598</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -5561,20 +5662,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,7 +5684,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5591,15 +5692,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56317689530685922</v>
+        <v>0.5658362989323843</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5608,7 +5709,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5616,15 +5717,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56317689530685922</v>
+        <v>0.56583629893238441</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9597" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C323FFCB-A412-4F38-B9D8-41902207363F}"/>
+  <xr:revisionPtr revIDLastSave="9614" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0742EC-90AA-476D-972E-8F6AD877E34F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="607">
   <si>
     <t>ROUND</t>
   </si>
@@ -1845,6 +1845,27 @@
   </si>
   <si>
     <t>6-7(5) 6-4 6-1</t>
+  </si>
+  <si>
+    <t>Sloane Stephens (USA)</t>
+  </si>
+  <si>
+    <t>Jennifer Brady (USA)</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Liudmila Samsonova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-7(3) 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>5-7 7-5 7-6(8)</t>
+  </si>
+  <si>
+    <t>1-6 6-1 6-2</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2157,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,7 +2265,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,7 +2782,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7567567567567568</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4635,10 +4656,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E62" activeCellId="8" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E67" activeCellId="9" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62 E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5421,6 +5442,68 @@
         <v>599</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>482</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>601</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>600</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>602</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>603</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>606</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5435,7 +5518,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5662,20 +5745,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.7567567567567568</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5684,7 +5767,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5692,15 +5775,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.5658362989323843</v>
+        <v>0.56690140845070425</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5709,7 +5792,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5717,15 +5800,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56583629893238441</v>
+        <v>0.56690140845070414</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9614" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0742EC-90AA-476D-972E-8F6AD877E34F}"/>
+  <xr:revisionPtr revIDLastSave="9626" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC98424E-DF38-4E42-9AE2-5E6BA9163946}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="609">
   <si>
     <t>ROUND</t>
   </si>
@@ -1866,6 +1866,12 @@
   </si>
   <si>
     <t>1-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-2 6-4</t>
+  </si>
+  <si>
+    <t>4-6 5-2 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2163,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,7 +2271,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2788,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.73170731707317072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,10 +4662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E67" activeCellId="9" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62 E67"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" activeCellId="15" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42 A44 A51 A55 A58 A64 A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5462,7 +5468,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5502,6 +5508,40 @@
       </c>
       <c r="F67" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>396</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>582</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -5518,7 +5558,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5745,20 +5785,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.73170731707317072</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5767,7 +5807,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5775,15 +5815,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56690140845070425</v>
+        <v>0.56491228070175437</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5792,7 +5832,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5800,15 +5840,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56690140845070414</v>
+        <v>0.56491228070175448</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9626" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC98424E-DF38-4E42-9AE2-5E6BA9163946}"/>
+  <xr:revisionPtr revIDLastSave="9644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F501441-5915-4FDC-872A-8004A73146B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="610">
   <si>
     <t>ROUND</t>
   </si>
@@ -1872,6 +1872,9 @@
   </si>
   <si>
     <t>4-6 5-2 RETIRED</t>
+  </si>
+  <si>
+    <t>6-3 6-7(6) 6-4</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2166,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,7 +2274,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,7 +2791,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73170731707317072</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4662,10 +4665,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" activeCellId="15" sqref="A2 A5 A7 A15 A18 A22 A29 A36 A39 A42 A44 A51 A55 A58 A64 A69"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E74" activeCellId="11" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62 E67 E70 E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5542,6 +5545,54 @@
       </c>
       <c r="F70" t="s">
         <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>555</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>459</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>431</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -5785,20 +5836,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.73170731707317072</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5807,7 +5858,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5815,15 +5866,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56491228070175437</v>
+        <v>0.56293706293706292</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5832,7 +5883,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5840,15 +5891,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56491228070175448</v>
+        <v>0.56293706293706292</v>
       </c>
     </row>
   </sheetData>
@@ -9370,8 +9421,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11008,7 +11059,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9644" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F501441-5915-4FDC-872A-8004A73146B9}"/>
+  <xr:revisionPtr revIDLastSave="9665" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0BB4662-C595-4DD0-85D0-0D968623C834}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="615">
   <si>
     <t>ROUND</t>
   </si>
@@ -1875,6 +1875,21 @@
   </si>
   <si>
     <t>6-3 6-7(6) 6-4</t>
+  </si>
+  <si>
+    <t>CHINA OPEN</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>Tatjana Maria (GERMANY)</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-1</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2181,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,7 +2289,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,7 +2806,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.71739130434782605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4665,10 +4680,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E74" activeCellId="11" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62 E67 E70 E74"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E80" activeCellId="12" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62 E67 E70 E74 E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5593,6 +5608,82 @@
       </c>
       <c r="F74" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>610</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>611</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>612</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>613</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>559</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>603</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5836,20 +5927,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5858,7 +5949,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5866,15 +5957,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56293706293706292</v>
+        <v>0.56551724137931036</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,7 +5974,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5891,15 +5982,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56293706293706292</v>
+        <v>0.56551724137931025</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9665" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0BB4662-C595-4DD0-85D0-0D968623C834}"/>
+  <xr:revisionPtr revIDLastSave="9666" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5CF52B-DF47-4D27-941C-99076157135F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -4209,7 +4209,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4221,7 +4221,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4600,21 +4600,21 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4682,21 +4682,21 @@
   </sheetPr>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" activeCellId="12" sqref="E3 E5 E13 E16 E34 E40 E42 E56 E62 E67 E70 E74 E80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5700,20 +5700,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0.71739130434782605</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0.56551724137931036</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -6024,21 +6024,21 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6196,10 +6196,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6214,21 +6214,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -6744,21 +6744,21 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7286,21 +7286,21 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8222,21 +8222,21 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9512,21 +9512,21 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10191,21 +10191,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11149,21 +11149,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9666" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5CF52B-DF47-4D27-941C-99076157135F}"/>
+  <xr:revisionPtr revIDLastSave="9682" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E442B56-4793-4C49-BF14-BC65AB95C632}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="619">
   <si>
     <t>ROUND</t>
   </si>
@@ -1890,6 +1890,18 @@
   </si>
   <si>
     <t>2-6 6-4 6-1</t>
+  </si>
+  <si>
+    <t>WTA FINALS</t>
+  </si>
+  <si>
+    <t>Group Stage</t>
+  </si>
+  <si>
+    <t>Maria Sakkari (GREECE)</t>
+  </si>
+  <si>
+    <t>6-0 6-7(4) 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2193,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,7 +2301,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,7 +2818,7 @@
                   <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71739130434782605</c:v>
+                  <c:v>0.7021276595744681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4209,7 +4221,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4221,7 +4233,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4600,7 +4612,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -4680,10 +4692,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E83" activeCellId="16" sqref="E2 E7:E12 E15 E18:E19 E22:E27 E29:E33 E36:E37 E39 E44:E49 E51:E52 E55 E58:E61 E64:E66 E69 E72 E76:E79 E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5686,6 +5698,54 @@
         <v>412</v>
       </c>
     </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>616</v>
+      </c>
+      <c r="D82" t="s">
+        <v>550</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>616</v>
+      </c>
+      <c r="D83" t="s">
+        <v>617</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>616</v>
+      </c>
+      <c r="D84" t="s">
+        <v>559</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5700,7 +5760,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5927,20 +5987,20 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>0.71739130434782605</v>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5949,7 +6009,7 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2:B11)</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:C11)</f>
@@ -5957,15 +6017,15 @@
       </c>
       <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E2:E11)</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" s="7">
         <f>(D12-E12)/D12</f>
-        <v>0.56551724137931036</v>
+        <v>0.56357388316151202</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5974,7 +6034,7 @@
       </c>
       <c r="B13" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -5982,15 +6042,15 @@
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D11)</f>
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E13" s="2">
         <f>AVERAGE(E2:E11)</f>
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56551724137931025</v>
+        <v>0.56357388316151202</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +6084,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -6214,7 +6274,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -6744,7 +6804,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -7286,7 +7346,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -8222,7 +8282,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -9512,7 +9572,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -10191,7 +10251,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -11149,7 +11209,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9682" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E442B56-4793-4C49-BF14-BC65AB95C632}"/>
+  <xr:revisionPtr revIDLastSave="9683" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF740DCF-1A07-40C7-85C3-248A996184DB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -4613,20 +4613,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4694,21 +4694,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E83" activeCellId="16" sqref="E2 E7:E12 E15 E18:E19 E22:E27 E29:E33 E36:E37 E39 E44:E49 E51:E52 E55 E58:E61 E64:E66 E69 E72 E76:E79 E83"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5759,21 +5759,21 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0.56357388316151202</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -6085,20 +6085,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6256,10 +6256,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6275,20 +6275,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -6805,20 +6805,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7347,20 +7347,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8283,20 +8283,20 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9573,20 +9573,20 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10252,20 +10252,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11209,21 +11209,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9683" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF740DCF-1A07-40C7-85C3-248A996184DB}"/>
+  <xr:revisionPtr revIDLastSave="9685" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8103AC6-7E28-4A74-A757-F31DEBB541A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4221,7 +4221,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4233,7 +4233,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4612,8 +4612,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4694,8 +4694,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5759,8 +5759,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6084,8 +6084,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,8 +6274,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6804,8 +6804,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7346,8 +7346,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8282,8 +8282,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9572,8 +9572,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10251,8 +10251,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11209,8 +11209,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9685" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8103AC6-7E28-4A74-A757-F31DEBB541A1}"/>
+  <xr:revisionPtr revIDLastSave="9686" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3DDCE46-7EA4-4EB7-9E5D-36EB28BFF968}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -4306,10 +4306,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4616,17 +4612,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4666,7 +4662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4694,21 +4690,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4748,7 +4744,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4758,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4816,7 +4812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4844,7 +4840,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4858,7 +4854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4872,7 +4868,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4886,7 +4882,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4906,7 +4902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -4920,7 +4916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -4940,7 +4936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +4964,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4988,7 +4984,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5002,7 +4998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5012,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5044,7 +5040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5078,7 +5074,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5092,7 +5088,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5120,7 +5116,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5134,7 +5130,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5148,7 +5144,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5165,7 +5161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5176,7 +5172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5196,7 +5192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5206,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5230,7 +5226,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5264,7 +5260,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5278,7 +5274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5292,7 +5288,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5306,7 +5302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5320,7 +5316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5340,7 +5336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5354,7 +5350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5368,7 +5364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5388,7 +5384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5398,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5436,7 +5432,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5450,7 +5446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5460,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5478,7 +5474,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5498,7 +5494,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5526,7 +5522,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5540,7 +5536,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5560,7 +5556,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5574,7 +5570,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5594,7 +5590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5608,7 +5604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5622,7 +5618,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5642,7 +5638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5670,7 +5666,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5684,7 +5680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5698,7 +5694,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5763,17 +5759,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5793,7 +5789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5814,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5856,7 +5852,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5877,7 +5873,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5898,7 +5894,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5919,7 +5915,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5940,7 +5936,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5982,7 +5978,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6028,7 +6024,7 @@
         <v>0.56357388316151202</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -6088,17 +6084,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6118,7 +6114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6138,7 +6134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6152,7 +6148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6186,7 +6182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6200,7 +6196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6214,7 +6210,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6228,7 +6224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6242,7 +6238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6256,10 +6252,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6278,17 +6274,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6328,7 +6324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6342,7 +6338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6362,7 +6358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6376,7 +6372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -6390,7 +6386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6432,7 +6428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6452,7 +6448,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6472,7 +6468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -6562,7 +6558,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6590,7 +6586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6604,7 +6600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6638,7 +6634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6652,7 +6648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6666,7 +6662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -6686,7 +6682,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -6700,7 +6696,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6714,7 +6710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -6762,7 +6758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6776,7 +6772,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -6808,17 +6804,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6838,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -6858,7 +6854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6872,7 +6868,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -6892,7 +6888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6906,7 +6902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6920,7 +6916,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6934,7 +6930,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6948,7 +6944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -6988,7 +6984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7002,7 +6998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7016,7 +7012,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7030,7 +7026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7050,7 +7046,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7070,7 +7066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7084,7 +7080,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7112,7 +7108,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7132,7 +7128,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7146,7 +7142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7160,7 +7156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7188,7 +7184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7208,7 +7204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7222,7 +7218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7236,7 +7232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7250,7 +7246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7280,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7298,7 +7294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7312,7 +7308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7350,17 +7346,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7380,7 +7376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -7400,7 +7396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7414,7 +7410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -7428,7 +7424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7442,7 +7438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7456,7 +7452,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7490,7 +7486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7504,7 +7500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7518,7 +7514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7532,7 +7528,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7566,7 +7562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7580,7 +7576,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7594,7 +7590,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -7608,7 +7604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7628,7 +7624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -7648,7 +7644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7662,7 +7658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7690,7 +7686,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7704,7 +7700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7744,7 +7740,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -7758,7 +7754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -7806,7 +7802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -7820,7 +7816,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -7840,7 +7836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +7850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -7874,7 +7870,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7888,7 +7884,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -7942,7 +7938,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -7956,7 +7952,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -7976,7 +7972,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8010,7 +8006,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8030,7 +8026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8044,7 +8040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8064,7 +8060,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8098,7 +8094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8118,7 +8114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8138,7 +8134,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8152,7 +8148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8166,7 +8162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8186,7 +8182,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8200,7 +8196,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8220,7 +8216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8234,7 +8230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8286,17 +8282,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8316,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8336,7 +8332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8350,7 +8346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8364,7 +8360,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8378,7 +8374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -8412,7 +8408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8432,7 +8428,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8452,7 +8448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -8466,7 +8462,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8480,7 +8476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8494,7 +8490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -8508,7 +8504,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -8528,7 +8524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -8548,7 +8544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8562,7 +8558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +8572,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8590,7 +8586,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8604,7 +8600,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -8624,7 +8620,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -8638,7 +8634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -8652,7 +8648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -8666,7 +8662,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -8680,7 +8676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -8700,7 +8696,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8714,7 +8710,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -8734,7 +8730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -8754,7 +8750,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8764,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8782,7 +8778,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8796,7 +8792,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8810,7 +8806,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -8830,7 +8826,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8844,7 +8840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -8864,7 +8860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8874,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -8892,7 +8888,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -8906,7 +8902,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -8926,7 +8922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -8946,7 +8942,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -8960,7 +8956,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -8974,7 +8970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -8988,7 +8984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +8998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9016,7 +9012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9046,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9064,7 +9060,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9084,7 +9080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9098,7 +9094,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9118,7 +9114,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9132,7 +9128,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9174,7 +9170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9208,7 +9204,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9228,7 +9224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9248,7 +9244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9262,7 +9258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9310,7 +9306,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9338,7 +9334,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9352,7 +9348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9366,7 +9362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -9406,7 +9402,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -9420,7 +9416,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -9434,7 +9430,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -9448,7 +9444,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -9496,7 +9492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -9544,7 +9540,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9576,17 +9572,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9606,7 +9602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -9626,7 +9622,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9654,7 +9650,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9668,7 +9664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -9702,7 +9698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9716,7 +9712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9744,7 +9740,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -9792,7 +9788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9806,7 +9802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -9840,7 +9836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -9854,7 +9850,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -9868,7 +9864,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -9882,7 +9878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -9902,7 +9898,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -9916,7 +9912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -9944,7 +9940,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -9978,7 +9974,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9992,7 +9988,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10006,7 +10002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10026,7 +10022,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10080,7 +10076,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10094,7 +10090,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10108,7 +10104,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10128,7 +10124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10142,7 +10138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10156,7 +10152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10170,7 +10166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10184,7 +10180,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10204,7 +10200,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10218,7 +10214,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10255,17 +10251,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10305,7 +10301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10387,7 +10383,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -10401,7 +10397,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -10421,7 +10417,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -10441,7 +10437,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -10455,7 +10451,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -10475,7 +10471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10489,7 +10485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -10509,7 +10505,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -10526,7 +10522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -10537,7 +10533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -10557,7 +10553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -10571,7 +10567,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10591,7 +10587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -10605,7 +10601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -10619,7 +10615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -10633,7 +10629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -10647,7 +10643,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -10667,7 +10663,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -10681,7 +10677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -10701,7 +10697,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -10715,7 +10711,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -10729,7 +10725,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -10743,7 +10739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10763,7 +10759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -10777,7 +10773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -10791,7 +10787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -10805,7 +10801,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -10825,7 +10821,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -10839,7 +10835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10853,7 +10849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10881,7 +10877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -10895,7 +10891,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -10915,7 +10911,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -10929,7 +10925,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -10949,7 +10945,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -10969,7 +10965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -10983,7 +10979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -10997,7 +10993,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11017,7 +11013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11031,7 +11027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11045,7 +11041,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11065,7 +11061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11079,7 +11075,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11113,7 +11109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11127,7 +11123,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11141,7 +11137,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11155,7 +11151,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11175,7 +11171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11213,17 +11209,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11243,7 +11239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11263,7 +11259,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11277,7 +11273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11291,7 +11287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11305,7 +11301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11319,7 +11315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11339,7 +11335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11353,7 +11349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11373,7 +11369,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -11387,7 +11383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -11407,7 +11403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11421,7 +11417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -11441,7 +11437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -11461,7 +11457,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -11475,7 +11471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11489,7 +11485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -11503,7 +11499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11523,7 +11519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11537,7 +11533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -11557,7 +11553,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -11574,7 +11570,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -11585,7 +11581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -11605,7 +11601,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11619,7 +11615,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -11639,7 +11635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11653,7 +11649,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -11667,7 +11663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -11687,7 +11683,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11701,7 +11697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -11715,7 +11711,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -11735,7 +11731,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -11749,7 +11745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -11763,7 +11759,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -11783,7 +11779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -11797,7 +11793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -11817,7 +11813,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -11837,7 +11833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -11851,7 +11847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -11865,7 +11861,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -11879,7 +11875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11893,7 +11889,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -11907,7 +11903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +11917,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -11941,7 +11937,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -11961,7 +11957,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -11975,7 +11971,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12009,7 +12005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12023,7 +12019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12037,7 +12033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12057,7 +12053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12077,7 +12073,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12091,7 +12087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12105,7 +12101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12119,7 +12115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12133,7 +12129,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12153,7 +12149,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12167,7 +12163,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12181,7 +12177,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12195,7 +12191,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12215,7 +12211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9686" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3DDCE46-7EA4-4EB7-9E5D-36EB28BFF968}"/>
+  <xr:revisionPtr revIDLastSave="9687" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359C9129-1CB6-4AFB-9EFD-387C5513E27B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -4306,6 +4306,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4612,17 +4616,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4662,7 +4666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4694,17 +4698,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4758,7 +4762,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4798,7 +4802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +4858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5030,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5116,7 +5120,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5130,7 +5134,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5316,7 +5320,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5556,7 +5560,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5638,7 +5642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5714,7 +5718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5759,17 +5763,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>0.56357388316151202</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>82</v>
       </c>
@@ -6084,17 +6088,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6148,7 +6152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6182,7 +6186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6196,7 +6200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6252,10 +6256,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6274,17 +6278,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6372,7 +6376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -6558,7 +6562,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -6572,7 +6576,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -6804,17 +6808,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6834,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -6964,7 +6968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -6998,7 +7002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7026,7 +7030,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7094,7 +7098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7294,7 +7298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7346,17 +7350,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7438,7 +7442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7452,7 +7456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7500,7 +7504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -7548,7 +7552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7562,7 +7566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -7604,7 +7608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -7644,7 +7648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -7754,7 +7758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7786,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -7870,7 +7874,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7884,7 +7888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8094,7 +8098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8114,7 +8118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8134,7 +8138,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8148,7 +8152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8182,7 +8186,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8196,7 +8200,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8216,7 +8220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8250,7 +8254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8282,17 +8286,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8312,7 +8316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8332,7 +8336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8346,7 +8350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8428,7 +8432,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -8462,7 +8466,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -8662,7 +8666,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8792,7 +8796,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8806,7 +8810,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -8826,7 +8830,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -8874,7 +8878,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -8902,7 +8906,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -8922,7 +8926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -8942,7 +8946,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -8956,7 +8960,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9012,7 +9016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9114,7 +9118,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9204,7 +9208,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9272,7 +9276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9286,7 +9290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9334,7 +9338,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9362,7 +9366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -9402,7 +9406,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -9492,7 +9496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -9512,7 +9516,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -9540,7 +9544,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9572,17 +9576,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -9622,7 +9626,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9636,7 +9640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9664,7 +9668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9712,7 +9716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -9836,7 +9840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -9878,7 +9882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -9912,7 +9916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -9954,7 +9958,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -9974,7 +9978,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10002,7 +10006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10022,7 +10026,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10042,7 +10046,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10056,7 +10060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10090,7 +10094,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10152,7 +10156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10166,7 +10170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10214,7 +10218,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10251,17 +10255,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10301,7 +10305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10315,7 +10319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -10363,7 +10367,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -10397,7 +10401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -10417,7 +10421,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -10451,7 +10455,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -10471,7 +10475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10485,7 +10489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -10505,7 +10509,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -10522,7 +10526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -10533,7 +10537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -10553,7 +10557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -10601,7 +10605,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -10615,7 +10619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -10629,7 +10633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -10711,7 +10715,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -10739,7 +10743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10759,7 +10763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -10773,7 +10777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -10787,7 +10791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -10801,7 +10805,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10849,7 +10853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -10891,7 +10895,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -10965,7 +10969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -10993,7 +10997,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11013,7 +11017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11075,7 +11079,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11109,7 +11113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11151,7 +11155,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11171,7 +11175,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11209,17 +11213,17 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11239,7 +11243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11259,7 +11263,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11273,7 +11277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11301,7 +11305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11315,7 +11319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11335,7 +11339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11349,7 +11353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11369,7 +11373,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -11383,7 +11387,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -11403,7 +11407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11417,7 +11421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -11437,7 +11441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -11457,7 +11461,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -11471,7 +11475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11485,7 +11489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -11499,7 +11503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11519,7 +11523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -11553,7 +11557,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -11570,7 +11574,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -11581,7 +11585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -11601,7 +11605,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11615,7 +11619,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11649,7 +11653,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -11663,7 +11667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -11683,7 +11687,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -11711,7 +11715,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -11745,7 +11749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -11759,7 +11763,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -11793,7 +11797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -11833,7 +11837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -11847,7 +11851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -11875,7 +11879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11889,7 +11893,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -11903,7 +11907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -11937,7 +11941,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -11957,7 +11961,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -11971,7 +11975,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -11991,7 +11995,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12019,7 +12023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12053,7 +12057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12073,7 +12077,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12087,7 +12091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12101,7 +12105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12115,7 +12119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12129,7 +12133,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12149,7 +12153,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12163,7 +12167,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12177,7 +12181,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12191,7 +12195,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12211,7 +12215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9687" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359C9129-1CB6-4AFB-9EFD-387C5513E27B}"/>
+  <xr:revisionPtr revIDLastSave="9716" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85AB1B6D-CB70-46CA-9D32-7FCF4E419026}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="9" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2021" sheetId="28" r:id="rId8"/>
     <sheet name="2022" sheetId="31" r:id="rId9"/>
     <sheet name="2023" sheetId="35" r:id="rId10"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId11"/>
-    <sheet name="Wins-Losses" sheetId="36" r:id="rId12"/>
-    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId13"/>
+    <sheet name="2024" sheetId="38" r:id="rId11"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId13"/>
+    <sheet name="Winning Percentile Range" sheetId="37" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="628">
   <si>
     <t>ROUND</t>
   </si>
@@ -1902,6 +1903,33 @@
   </si>
   <si>
     <t>6-0 6-7(4) 7-6(2)</t>
+  </si>
+  <si>
+    <t>BRISBANE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Quarterfinals</t>
+  </si>
+  <si>
+    <t>Semifinals</t>
+  </si>
+  <si>
+    <t>6-0, 6-3</t>
+  </si>
+  <si>
+    <t>Olivia Gadecki (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -4613,20 +4641,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4646,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4666,7 +4694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4680,7 +4708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4694,21 +4722,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4748,7 +4776,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4790,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4782,7 +4810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4802,7 +4830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4816,7 +4844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4830,7 +4858,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4844,7 +4872,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4858,7 +4886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4872,7 +4900,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4886,7 +4914,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4906,7 +4934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -4920,7 +4948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -4940,7 +4968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +4996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -4988,7 +5016,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5002,7 +5030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5044,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5030,7 +5058,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5044,7 +5072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5058,7 +5086,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5078,7 +5106,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5092,7 +5120,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5106,7 +5134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5120,7 +5148,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5134,7 +5162,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5148,7 +5176,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5165,7 +5193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5176,7 +5204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5196,7 +5224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5210,7 +5238,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5230,7 +5258,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5250,7 +5278,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5264,7 +5292,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5278,7 +5306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5292,7 +5320,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5306,7 +5334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5320,7 +5348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5340,7 +5368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5354,7 +5382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5368,7 +5396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5388,7 +5416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5422,7 +5450,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5436,7 +5464,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5450,7 +5478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5492,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5478,7 +5506,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5498,7 +5526,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5512,7 +5540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5526,7 +5554,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5540,7 +5568,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5560,7 +5588,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5574,7 +5602,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5594,7 +5622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5608,7 +5636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5622,7 +5650,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5642,7 +5670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5684,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5670,7 +5698,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5684,7 +5712,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5698,7 +5726,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5718,7 +5746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5732,7 +5760,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5753,27 +5781,150 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471BE033-307D-488B-8A96-1BB88CE34FB0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5793,7 +5944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -5810,11 +5961,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F11" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F12" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -5835,7 +5986,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -5856,7 +6007,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -5877,7 +6028,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -5898,7 +6049,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -5919,7 +6070,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -5940,7 +6091,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -5961,7 +6112,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -5982,7 +6133,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6003,58 +6154,79 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <f>SUM(B2:B11)</f>
-        <v>144</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C2:C11)</f>
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <f>SUM(D2:D11)</f>
-        <v>291</v>
-      </c>
-      <c r="E12" s="2">
-        <f>SUM(E2:E11)</f>
+      <c r="B13" s="2">
+        <f>SUM(B2:B12)</f>
+        <v>145</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C2:C12)</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(D2:D12)</f>
+        <v>296</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM(E2:E12)</f>
         <v>127</v>
-      </c>
-      <c r="F12" s="7">
-        <f>(D12-E12)/D12</f>
-        <v>0.56357388316151202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2">
-        <f>AVERAGE(B2:B11)</f>
-        <v>14.4</v>
-      </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>29.1</v>
-      </c>
-      <c r="E13" s="2">
-        <f>AVERAGE(E2:E11)</f>
-        <v>12.7</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56357388316151202</v>
+        <v>0.57094594594594594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(B2:B12)</f>
+        <v>13.181818181818182</v>
+      </c>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>26.90909090909091</v>
+      </c>
+      <c r="E14" s="2">
+        <f>AVERAGE(E2:E12)</f>
+        <v>11.545454545454545</v>
+      </c>
+      <c r="F14" s="7">
+        <f>(D14-E14)/D14</f>
+        <v>0.57094594594594594</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6063,7 +6235,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11">
+  <conditionalFormatting sqref="F3:F12">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6085,20 +6257,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6118,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6138,7 +6310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6152,7 +6324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6172,7 +6344,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6186,7 +6358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6200,7 +6372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6214,7 +6386,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6228,7 +6400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6242,7 +6414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6256,10 +6428,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6275,20 +6447,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6308,7 +6480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6328,7 +6500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6342,7 +6514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6362,7 +6534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6376,7 +6548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -6390,7 +6562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6418,7 +6590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6432,7 +6604,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6452,7 +6624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6472,7 +6644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6486,7 +6658,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6500,7 +6672,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6528,7 +6700,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -6542,7 +6714,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -6562,7 +6734,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -6576,7 +6748,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -6590,7 +6762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -6604,7 +6776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -6624,7 +6796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6638,7 +6810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -6652,7 +6824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -6666,7 +6838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -6686,7 +6858,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -6700,7 +6872,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -6714,7 +6886,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -6734,7 +6906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -6748,7 +6920,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -6762,7 +6934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -6776,7 +6948,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -6805,20 +6977,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6838,7 +7010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -6858,7 +7030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6872,7 +7044,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -6892,7 +7064,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6906,7 +7078,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6920,7 +7092,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6934,7 +7106,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6948,7 +7120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -6968,7 +7140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -6988,7 +7160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7002,7 +7174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7016,7 +7188,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7030,7 +7202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7050,7 +7222,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7070,7 +7242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7084,7 +7256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7098,7 +7270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7112,7 +7284,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7132,7 +7304,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7146,7 +7318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7160,7 +7332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7174,7 +7346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7188,7 +7360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7208,7 +7380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7222,7 +7394,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7236,7 +7408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7250,7 +7422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7270,7 +7442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7456,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7298,7 +7470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7312,7 +7484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7347,20 +7519,20 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7380,7 +7552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -7400,7 +7572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7414,7 +7586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -7428,7 +7600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7442,7 +7614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7456,7 +7628,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7490,7 +7662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7504,7 +7676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7518,7 +7690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7532,7 +7704,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -7552,7 +7724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -7566,7 +7738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -7580,7 +7752,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -7594,7 +7766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -7608,7 +7780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -7628,7 +7800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -7648,7 +7820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -7662,7 +7834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +7848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -7690,7 +7862,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -7704,7 +7876,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -7724,7 +7896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -7744,7 +7916,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -7758,7 +7930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -7772,7 +7944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -7786,7 +7958,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -7806,7 +7978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -7820,7 +7992,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -7840,7 +8012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +8026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -7874,7 +8046,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -7888,7 +8060,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -7902,7 +8074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -7922,7 +8094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -7942,7 +8114,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -7956,7 +8128,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -7976,7 +8148,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -7996,7 +8168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8010,7 +8182,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8030,7 +8202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8044,7 +8216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8064,7 +8236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8078,7 +8250,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8098,7 +8270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8118,7 +8290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8138,7 +8310,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8152,7 +8324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8166,7 +8338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8186,7 +8358,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8200,7 +8372,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8220,7 +8392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8234,7 +8406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8254,7 +8426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8283,20 +8455,20 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8316,7 +8488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8336,7 +8508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8350,7 +8522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8364,7 +8536,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8378,7 +8550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8392,7 +8564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -8412,7 +8584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8432,7 +8604,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8452,7 +8624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -8466,7 +8638,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8480,7 +8652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8494,7 +8666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -8508,7 +8680,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -8528,7 +8700,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -8548,7 +8720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -8562,7 +8734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +8748,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -8590,7 +8762,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -8604,7 +8776,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -8624,7 +8796,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -8638,7 +8810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -8652,7 +8824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -8666,7 +8838,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -8680,7 +8852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -8700,7 +8872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8714,7 +8886,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -8734,7 +8906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -8754,7 +8926,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8940,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8782,7 +8954,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -8796,7 +8968,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -8810,7 +8982,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -8830,7 +9002,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -8844,7 +9016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -8864,7 +9036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +9050,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -8892,7 +9064,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -8906,7 +9078,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -8926,7 +9098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -8946,7 +9118,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -8960,7 +9132,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -8974,7 +9146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -8988,7 +9160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9002,7 +9174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9016,7 +9188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9036,7 +9208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9222,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9064,7 +9236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9084,7 +9256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9098,7 +9270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9118,7 +9290,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9132,7 +9304,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9146,7 +9318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9160,7 +9332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9174,7 +9346,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9194,7 +9366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9208,7 +9380,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9228,7 +9400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9248,7 +9420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9262,7 +9434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9276,7 +9448,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9290,7 +9462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9310,7 +9482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9324,7 +9496,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9338,7 +9510,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9352,7 +9524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9366,7 +9538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -9386,7 +9558,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -9406,7 +9578,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -9420,7 +9592,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -9434,7 +9606,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -9448,7 +9620,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9468,7 +9640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -9482,7 +9654,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -9496,7 +9668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -9516,7 +9688,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -9530,7 +9702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -9544,7 +9716,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9573,20 +9745,20 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9606,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -9626,7 +9798,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9654,7 +9826,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9668,7 +9840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +9854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -9702,7 +9874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -9716,7 +9888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -9730,7 +9902,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -9744,7 +9916,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -9778,7 +9950,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -9792,7 +9964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -9806,7 +9978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -9826,7 +9998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -9840,7 +10012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -9854,7 +10026,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -9868,7 +10040,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -9882,7 +10054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -9902,7 +10074,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -9916,7 +10088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -9930,7 +10102,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -9944,7 +10116,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -9958,7 +10130,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -9978,7 +10150,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -9992,7 +10164,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10006,7 +10178,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10026,7 +10198,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10046,7 +10218,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10060,7 +10232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10080,7 +10252,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10094,7 +10266,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10108,7 +10280,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10128,7 +10300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10142,7 +10314,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10156,7 +10328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10170,7 +10342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10184,7 +10356,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10204,7 +10376,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10218,7 +10390,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10252,20 +10424,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10305,7 +10477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10319,7 +10491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10333,7 +10505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10347,7 +10519,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -10367,7 +10539,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10387,7 +10559,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -10401,7 +10573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -10421,7 +10593,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -10441,7 +10613,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -10455,7 +10627,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -10475,7 +10647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10489,7 +10661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -10509,7 +10681,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -10526,7 +10698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -10537,7 +10709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -10557,7 +10729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -10571,7 +10743,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -10591,7 +10763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -10605,7 +10777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -10619,7 +10791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -10633,7 +10805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -10647,7 +10819,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -10667,7 +10839,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -10681,7 +10853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -10701,7 +10873,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -10715,7 +10887,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -10729,7 +10901,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -10743,7 +10915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -10763,7 +10935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -10777,7 +10949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -10791,7 +10963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -10805,7 +10977,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -10825,7 +10997,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -10839,7 +11011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -10853,7 +11025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -10867,7 +11039,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10881,7 +11053,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -10895,7 +11067,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -10915,7 +11087,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -10929,7 +11101,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -10949,7 +11121,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -10969,7 +11141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -10983,7 +11155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -10997,7 +11169,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11017,7 +11189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11031,7 +11203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11045,7 +11217,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11065,7 +11237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11079,7 +11251,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11113,7 +11285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11127,7 +11299,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11141,7 +11313,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11155,7 +11327,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11175,7 +11347,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11210,20 +11382,20 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11243,7 +11415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11263,7 +11435,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11277,7 +11449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11291,7 +11463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11305,7 +11477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11319,7 +11491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11339,7 +11511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11353,7 +11525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11373,7 +11545,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -11387,7 +11559,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -11407,7 +11579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11421,7 +11593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -11441,7 +11613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -11461,7 +11633,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -11475,7 +11647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11489,7 +11661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -11503,7 +11675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11523,7 +11695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11537,7 +11709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -11557,7 +11729,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -11574,7 +11746,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -11585,7 +11757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -11605,7 +11777,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11619,7 +11791,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -11639,7 +11811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -11653,7 +11825,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -11667,7 +11839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -11687,7 +11859,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -11701,7 +11873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -11715,7 +11887,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -11735,7 +11907,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -11749,7 +11921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -11763,7 +11935,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -11783,7 +11955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -11797,7 +11969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -11817,7 +11989,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -11837,7 +12009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -11851,7 +12023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -11865,7 +12037,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -11879,7 +12051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -11893,7 +12065,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -11907,7 +12079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +12093,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -11941,7 +12113,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -11961,7 +12133,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -11975,7 +12147,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -11995,7 +12167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12009,7 +12181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12023,7 +12195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12037,7 +12209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12057,7 +12229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12077,7 +12249,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12091,7 +12263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12105,7 +12277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12119,7 +12291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12133,7 +12305,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12153,7 +12325,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12167,7 +12339,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12181,7 +12353,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12195,7 +12367,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12215,7 +12387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9716" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85AB1B6D-CB70-46CA-9D32-7FCF4E419026}"/>
+  <xr:revisionPtr revIDLastSave="9734" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{650977DD-77EF-474B-8AFA-71D10C872F3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="626">
   <si>
     <t>ROUND</t>
   </si>
@@ -1908,21 +1908,6 @@
     <t>BRISBANE INTERNATIONAL</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>Quarterfinals</t>
-  </si>
-  <si>
-    <t>Semifinals</t>
-  </si>
-  <si>
-    <t>6-0, 6-3</t>
-  </si>
-  <si>
     <t>Olivia Gadecki (AUSTRALIA)</t>
   </si>
   <si>
@@ -1930,6 +1915,15 @@
   </si>
   <si>
     <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Cristina Bucșa (SPAIN)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 6-3 </t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2012,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2028,6 +2022,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4249,7 +4244,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4261,7 +4256,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4339,9 +4334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4379,7 +4374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4485,7 +4480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4627,7 +4622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4640,7 +4635,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4722,8 +4717,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,10 +5780,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,10 +5824,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>620</v>
-      </c>
-      <c r="D2" t="s">
-        <v>625</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
@@ -5843,7 +5838,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>621</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>573</v>
@@ -5857,21 +5852,21 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>622</v>
       </c>
-      <c r="D4" t="s">
-        <v>627</v>
-      </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>623</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>589</v>
@@ -5894,7 +5889,41 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>624</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5911,7 +5940,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,20 +6188,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6181,7 +6210,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6189,15 +6218,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.57094594594594594</v>
+        <v>0.56902356902356899</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,7 +6235,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.181818181818182</v>
+        <v>13.272727272727273</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6214,15 +6243,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>26.90909090909091</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>11.545454545454545</v>
+        <v>11.636363636363637</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.57094594594594594</v>
+        <v>0.56902356902356899</v>
       </c>
     </row>
   </sheetData>
@@ -6256,7 +6285,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6446,7 +6475,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6976,7 +7005,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7518,7 +7547,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8454,7 +8483,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9744,7 +9773,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10423,7 +10452,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11381,8 +11410,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9734" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{650977DD-77EF-474B-8AFA-71D10C872F3E}"/>
+  <xr:revisionPtr revIDLastSave="9750" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC89315-524D-4A5E-8A9D-2F9BCB9FA8BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="629">
   <si>
     <t>ROUND</t>
   </si>
@@ -1924,6 +1924,15 @@
   </si>
   <si>
     <t xml:space="preserve">6-3 6-3 </t>
+  </si>
+  <si>
+    <t>Anna Blinkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(7) 6-4</t>
+  </si>
+  <si>
+    <t>6-4 4-6 7-6(22-20)</t>
   </si>
 </sst>
 </file>
@@ -4718,7 +4727,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,20 +5789,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" activeCellId="2" sqref="E2:E6 E8 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,6 +5933,40 @@
       </c>
       <c r="F9" s="9" t="s">
         <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>626</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -6188,20 +6231,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6210,7 +6253,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6218,15 +6261,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56902356902356899</v>
+        <v>0.56711409395973156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6235,7 +6278,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.272727272727273</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6243,15 +6286,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>27</v>
+        <v>27.09090909090909</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>11.636363636363637</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.56902356902356899</v>
+        <v>0.56711409395973156</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9750" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC89315-524D-4A5E-8A9D-2F9BCB9FA8BF}"/>
+  <xr:revisionPtr revIDLastSave="9767" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F18E27D-2ADD-4169-9000-484AE65828BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="18135" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="629">
   <si>
     <t>ROUND</t>
   </si>
@@ -4343,9 +4343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4383,7 +4383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4489,7 +4489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4631,7 +4631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4726,8 +4726,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,10 +5789,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" activeCellId="2" sqref="E2:E6 E8 E11"/>
+      <selection activeCell="E14" activeCellId="3" sqref="E2:E6 E8 E11 E14:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,6 +5967,68 @@
       </c>
       <c r="F12" t="s">
         <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>554</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>623</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>603</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>602</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6231,20 +6293,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6253,15 +6315,15 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6269,7 +6331,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.56711409395973156</v>
+        <v>0.57284768211920534</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6278,15 +6340,15 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.363636363636363</v>
+        <v>13.454545454545455</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
-        <v>0.54545454545454541</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>27.09090909090909</v>
+        <v>27.454545454545453</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6294,7 +6356,7 @@
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.56711409395973156</v>
+        <v>0.57284768211920534</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9767" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F18E27D-2ADD-4169-9000-484AE65828BE}"/>
+  <xr:revisionPtr revIDLastSave="9787" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256E0715-9F94-4EA0-9138-BE92E9B1370A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18135" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="634">
   <si>
     <t>ROUND</t>
   </si>
@@ -1933,6 +1933,21 @@
   </si>
   <si>
     <t>6-4 4-6 7-6(22-20)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>6-1 6-7(6) 6-4</t>
+  </si>
+  <si>
+    <t>Leylah Fernandez (CANADA)</t>
+  </si>
+  <si>
+    <t>7-6(8) 6-2</t>
   </si>
 </sst>
 </file>
@@ -4726,8 +4741,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,10 +5804,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" activeCellId="3" sqref="E2:E6 E8 E11 E14:E17"/>
+      <selection activeCell="E19" activeCellId="4" sqref="E2:E6 E8 E11 E14:E17 E19:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6017,7 +6032,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -6029,6 +6044,82 @@
       </c>
       <c r="F17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>629</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>630</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -6293,20 +6384,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6315,7 +6406,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6323,15 +6414,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.57284768211920534</v>
+        <v>0.57516339869281041</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6340,7 +6431,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.454545454545455</v>
+        <v>13.545454545454545</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6348,15 +6439,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>27.454545454545453</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>11.727272727272727</v>
+        <v>11.818181818181818</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.57284768211920534</v>
+        <v>0.57516339869281041</v>
       </c>
     </row>
   </sheetData>
@@ -10557,8 +10648,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9787" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256E0715-9F94-4EA0-9138-BE92E9B1370A}"/>
+  <xr:revisionPtr revIDLastSave="9798" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3200D27A-0506-431B-95F3-11444A9ED606}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="636">
   <si>
     <t>ROUND</t>
   </si>
@@ -1948,6 +1948,12 @@
   </si>
   <si>
     <t>7-6(8) 6-2</t>
+  </si>
+  <si>
+    <t>4-6 6-2 RETIRED</t>
+  </si>
+  <si>
+    <t>7-6(5) 3-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -4741,8 +4747,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,19 +5810,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" activeCellId="4" sqref="E2:E6 E8 E11 E14:E17 E19:E22"/>
+      <selection activeCell="E25" activeCellId="5" sqref="E2:E6 E8 E11 E14:E17 E19:E22 E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6120,6 +6126,54 @@
       </c>
       <c r="F23" t="s">
         <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>582</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6190,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6384,20 +6438,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6406,7 +6460,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6414,7 +6468,7 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6422,7 +6476,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.57516339869281041</v>
+        <v>0.57792207792207795</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6431,7 +6485,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.545454545454545</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6439,7 +6493,7 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>27.818181818181817</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6447,7 +6501,7 @@
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.57516339869281041</v>
+        <v>0.57792207792207784</v>
       </c>
     </row>
   </sheetData>
@@ -11607,7 +11661,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9798" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3200D27A-0506-431B-95F3-11444A9ED606}"/>
+  <xr:revisionPtr revIDLastSave="9822" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71346A3-B9C1-45E0-9852-92DD04D47D7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="643">
   <si>
     <t>ROUND</t>
   </si>
@@ -1954,6 +1954,27 @@
   </si>
   <si>
     <t>7-6(5) 3-6 6-4</t>
+  </si>
+  <si>
+    <t>Clara Tauson (DENMARK)</t>
+  </si>
+  <si>
+    <t>Taylor Townsend (USA)</t>
+  </si>
+  <si>
+    <t>Madison Keys (USA)</t>
+  </si>
+  <si>
+    <t>6-4 0-6 7-6(2)</t>
+  </si>
+  <si>
+    <t>7-5 6-7(4) 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-7(3) 6-4</t>
+  </si>
+  <si>
+    <t>3-6 7-5 6-4</t>
   </si>
 </sst>
 </file>
@@ -4364,9 +4385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4404,7 +4425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4510,7 +4531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4652,7 +4673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4669,17 +4690,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4699,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4719,7 +4740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4733,7 +4754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4748,20 +4769,20 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4781,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4801,7 +4822,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4815,7 +4836,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4835,7 +4856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4855,7 +4876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4869,7 +4890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4883,7 +4904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4897,7 +4918,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4911,7 +4932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4925,7 +4946,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4939,7 +4960,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4959,7 +4980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -4973,7 +4994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -4993,7 +5014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +5028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5021,7 +5042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -5041,7 +5062,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5055,7 +5076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5069,7 +5090,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5083,7 +5104,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5097,7 +5118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5111,7 +5132,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5131,7 +5152,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5145,7 +5166,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5159,7 +5180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5173,7 +5194,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5187,7 +5208,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5201,7 +5222,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5218,7 +5239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5229,7 +5250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5249,7 +5270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5263,7 +5284,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5283,7 +5304,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5303,7 +5324,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5317,7 +5338,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5331,7 +5352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5345,7 +5366,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5359,7 +5380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5373,7 +5394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5393,7 +5414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5407,7 +5428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5421,7 +5442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5441,7 +5462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5455,7 +5476,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5475,7 +5496,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5489,7 +5510,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5503,7 +5524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5517,7 +5538,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5531,7 +5552,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5551,7 +5572,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5565,7 +5586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5579,7 +5600,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5593,7 +5614,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5613,7 +5634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5627,7 +5648,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5647,7 +5668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5661,7 +5682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5675,7 +5696,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5695,7 +5716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5709,7 +5730,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5723,7 +5744,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5737,7 +5758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5751,7 +5772,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5771,7 +5792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5785,7 +5806,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5810,23 +5831,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" activeCellId="5" sqref="E2:E6 E8 E11 E14:E17 E19:E22 E25:E26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="3" sqref="E9 E12 E23 E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5846,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -5866,7 +5887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5880,7 +5901,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5894,7 +5915,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -5908,7 +5929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -5922,7 +5943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -5942,7 +5963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -5956,7 +5977,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -5976,7 +5997,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -5990,7 +6011,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -6010,7 +6031,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6024,7 +6045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -6038,7 +6059,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -6052,7 +6073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>629</v>
       </c>
@@ -6072,7 +6093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -6086,7 +6107,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -6100,7 +6121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6114,7 +6135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -6128,7 +6149,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -6148,7 +6169,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -6162,7 +6183,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6174,6 +6195,96 @@
       </c>
       <c r="F27" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>636</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>637</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>638</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>617</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6190,20 +6301,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6223,7 +6334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6244,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6265,7 +6376,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6286,7 +6397,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6307,7 +6418,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6328,7 +6439,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6349,7 +6460,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6370,7 +6481,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6391,7 +6502,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6412,7 +6523,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6433,34 +6544,34 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6468,24 +6579,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.57792207792207795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.58146964856230032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.636363636363637</v>
+        <v>13.727272727272727</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6493,15 +6604,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>28</v>
+        <v>28.454545454545453</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>11.818181818181818</v>
+        <v>11.909090909090908</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.57792207792207784</v>
+        <v>0.58146964856230043</v>
       </c>
     </row>
   </sheetData>
@@ -6539,17 +6650,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6569,7 +6680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6589,7 +6700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6603,7 +6714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6623,7 +6734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6637,7 +6748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6651,7 +6762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6665,7 +6776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6679,7 +6790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6693,7 +6804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6707,10 +6818,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6729,17 +6840,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6759,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6779,7 +6890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6793,7 +6904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6813,7 +6924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6827,7 +6938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -6841,7 +6952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -6855,7 +6966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -6869,7 +6980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -6883,7 +6994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6903,7 +7014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6923,7 +7034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -6937,7 +7048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -6951,7 +7062,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -6965,7 +7076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -6979,7 +7090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -6993,7 +7104,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -7013,7 +7124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -7027,7 +7138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -7041,7 +7152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -7055,7 +7166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -7075,7 +7186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7089,7 +7200,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7103,7 +7214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7117,7 +7228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -7137,7 +7248,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7151,7 +7262,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7165,7 +7276,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -7185,7 +7296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -7199,7 +7310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7213,7 +7324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -7227,7 +7338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -7259,17 +7370,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7289,7 +7400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -7309,7 +7420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7323,7 +7434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -7343,7 +7454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7357,7 +7468,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7371,7 +7482,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7385,7 +7496,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7399,7 +7510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7419,7 +7530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7439,7 +7550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7467,7 +7578,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7481,7 +7592,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7501,7 +7612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7521,7 +7632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7535,7 +7646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7549,7 +7660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7563,7 +7674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7583,7 +7694,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7597,7 +7708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7611,7 +7722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7625,7 +7736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7639,7 +7750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7659,7 +7770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7673,7 +7784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7687,7 +7798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7701,7 +7812,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7721,7 +7832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7735,7 +7846,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7749,7 +7860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7763,7 +7874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7801,17 +7912,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7831,7 +7942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -7851,7 +7962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7865,7 +7976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -7879,7 +7990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -7893,7 +8004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -7907,7 +8018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -7921,7 +8032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -7941,7 +8052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -7955,7 +8066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -7969,7 +8080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -7983,7 +8094,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -8003,7 +8114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -8017,7 +8128,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -8031,7 +8142,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -8045,7 +8156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -8059,7 +8170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -8079,7 +8190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -8099,7 +8210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8113,7 +8224,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8127,7 +8238,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8141,7 +8252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -8155,7 +8266,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -8175,7 +8286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -8195,7 +8306,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -8209,7 +8320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8223,7 +8334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8237,7 +8348,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -8257,7 +8368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8271,7 +8382,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -8291,7 +8402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -8305,7 +8416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -8325,7 +8436,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -8339,7 +8450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8353,7 +8464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -8373,7 +8484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -8393,7 +8504,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -8407,7 +8518,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -8427,7 +8538,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -8447,7 +8558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8461,7 +8572,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8481,7 +8592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +8606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8515,7 +8626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8529,7 +8640,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8549,7 +8660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8569,7 +8680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8589,7 +8700,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8603,7 +8714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8617,7 +8728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8637,7 +8748,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8651,7 +8762,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8671,7 +8782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8685,7 +8796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8705,7 +8816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8737,17 +8848,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8767,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8787,7 +8898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8801,7 +8912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8815,7 +8926,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -8829,7 +8940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -8843,7 +8954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -8863,7 +8974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -8883,7 +8994,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -8903,7 +9014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +9028,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8931,7 +9042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -8945,7 +9056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -8959,7 +9070,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -8979,7 +9090,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -8999,7 +9110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9013,7 +9124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9027,7 +9138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9041,7 +9152,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9055,7 +9166,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9075,7 +9186,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -9089,7 +9200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -9103,7 +9214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -9117,7 +9228,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -9151,7 +9262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9165,7 +9276,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -9185,7 +9296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -9205,7 +9316,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -9219,7 +9330,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -9233,7 +9344,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9247,7 +9358,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9261,7 +9372,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9281,7 +9392,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9295,7 +9406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -9315,7 +9426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -9329,7 +9440,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -9343,7 +9454,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -9357,7 +9468,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -9377,7 +9488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -9397,7 +9508,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -9411,7 +9522,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -9425,7 +9536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9439,7 +9550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9453,7 +9564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9467,7 +9578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9487,7 +9598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9501,7 +9612,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9515,7 +9626,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9535,7 +9646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9549,7 +9660,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9569,7 +9680,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9583,7 +9694,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9597,7 +9708,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9611,7 +9722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9625,7 +9736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9645,7 +9756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9659,7 +9770,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9679,7 +9790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9699,7 +9810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9713,7 +9824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9727,7 +9838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9741,7 +9852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9761,7 +9872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9775,7 +9886,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9789,7 +9900,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9803,7 +9914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9817,7 +9928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -9837,7 +9948,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -9857,7 +9968,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -9871,7 +9982,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -9885,7 +9996,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -9899,7 +10010,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9919,7 +10030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -9933,7 +10044,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -9947,7 +10058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -9967,7 +10078,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -9981,7 +10092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -9995,7 +10106,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -10027,17 +10138,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10057,7 +10168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -10077,7 +10188,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10091,7 +10202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10105,7 +10216,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10119,7 +10230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -10133,7 +10244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -10153,7 +10264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10167,7 +10278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10181,7 +10292,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -10195,7 +10306,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -10209,7 +10320,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10229,7 +10340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -10243,7 +10354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -10257,7 +10368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -10277,7 +10388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -10291,7 +10402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10305,7 +10416,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -10319,7 +10430,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -10333,7 +10444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -10353,7 +10464,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -10367,7 +10478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -10381,7 +10492,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -10395,7 +10506,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -10409,7 +10520,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -10429,7 +10540,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -10443,7 +10554,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10457,7 +10568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10477,7 +10588,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10497,7 +10608,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10511,7 +10622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10531,7 +10642,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10545,7 +10656,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10559,7 +10670,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10579,7 +10690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10593,7 +10704,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10607,7 +10718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10621,7 +10732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10635,7 +10746,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10655,7 +10766,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10669,7 +10780,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10706,17 +10817,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10736,7 +10847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10756,7 +10867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10770,7 +10881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10784,7 +10895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10798,7 +10909,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -10818,7 +10929,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10838,7 +10949,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -10852,7 +10963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -10872,7 +10983,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -10892,7 +11003,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -10906,7 +11017,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -10926,7 +11037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -10940,7 +11051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -10960,7 +11071,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -10977,7 +11088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -10988,7 +11099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -11008,7 +11119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -11022,7 +11133,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -11042,7 +11153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -11056,7 +11167,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11070,7 +11181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -11084,7 +11195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11098,7 +11209,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11118,7 +11229,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -11132,7 +11243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -11152,7 +11263,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -11166,7 +11277,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11180,7 +11291,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -11194,7 +11305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -11214,7 +11325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -11228,7 +11339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -11242,7 +11353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -11256,7 +11367,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -11276,7 +11387,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -11290,7 +11401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11304,7 +11415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -11318,7 +11429,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -11332,7 +11443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -11346,7 +11457,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -11366,7 +11477,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -11380,7 +11491,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -11400,7 +11511,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -11420,7 +11531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -11434,7 +11545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -11448,7 +11559,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11468,7 +11579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11482,7 +11593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11496,7 +11607,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11516,7 +11627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11530,7 +11641,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11544,7 +11655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11564,7 +11675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11578,7 +11689,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11592,7 +11703,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11606,7 +11717,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11626,7 +11737,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11664,17 +11775,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11694,7 +11805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11714,7 +11825,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11728,7 +11839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11742,7 +11853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11756,7 +11867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11770,7 +11881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11790,7 +11901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11804,7 +11915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11824,7 +11935,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -11838,7 +11949,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -11858,7 +11969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11872,7 +11983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -11892,7 +12003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -11912,7 +12023,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -11926,7 +12037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11940,7 +12051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -11954,7 +12065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -11974,7 +12085,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -11988,7 +12099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -12008,7 +12119,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -12025,7 +12136,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -12036,7 +12147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -12056,7 +12167,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -12070,7 +12181,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -12090,7 +12201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -12104,7 +12215,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -12118,7 +12229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -12138,7 +12249,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -12152,7 +12263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -12166,7 +12277,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -12186,7 +12297,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -12200,7 +12311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -12214,7 +12325,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -12234,7 +12345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -12248,7 +12359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -12268,7 +12379,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -12288,7 +12399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -12302,7 +12413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -12316,7 +12427,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -12330,7 +12441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -12344,7 +12455,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -12358,7 +12469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -12372,7 +12483,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -12392,7 +12503,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -12412,7 +12523,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -12426,7 +12537,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -12446,7 +12557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12460,7 +12571,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12474,7 +12585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12488,7 +12599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12508,7 +12619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12528,7 +12639,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12542,7 +12653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12556,7 +12667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12570,7 +12681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12584,7 +12695,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12604,7 +12715,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12618,7 +12729,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12632,7 +12743,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12646,7 +12757,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12666,7 +12777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9822" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71346A3-B9C1-45E0-9852-92DD04D47D7B}"/>
+  <xr:revisionPtr revIDLastSave="9841" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56ADEB9B-53DC-4B91-B290-107B17A303A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="646">
   <si>
     <t>ROUND</t>
   </si>
@@ -1975,6 +1975,15 @@
   </si>
   <si>
     <t>3-6 7-5 6-4</t>
+  </si>
+  <si>
+    <t>Veronika Kudermetova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 1-6 6-4</t>
+  </si>
+  <si>
+    <t>6-3 5-7 6-3</t>
   </si>
 </sst>
 </file>
@@ -5831,20 +5840,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E34" activeCellId="3" sqref="E9 E12 E23 E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6259,7 +6268,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -6273,7 +6282,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -6285,6 +6294,68 @@
       </c>
       <c r="F34" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>643</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>582</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>555</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +6372,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6549,20 +6620,20 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6571,15 +6642,15 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6587,7 +6658,7 @@
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.58146964856230032</v>
+        <v>0.58675078864353314</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,15 +6667,15 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.727272727272727</v>
+        <v>13.818181818181818</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
-        <v>0.63636363636363635</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>28.454545454545453</v>
+        <v>28.818181818181817</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6612,7 +6683,7 @@
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.58146964856230043</v>
+        <v>0.58675078864353303</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9841" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56ADEB9B-53DC-4B91-B290-107B17A303A0}"/>
+  <xr:revisionPtr revIDLastSave="9870" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5557BFE-DB6B-46CF-879C-F8B1DBCFA7FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="651">
   <si>
     <t>ROUND</t>
   </si>
@@ -1984,6 +1984,21 @@
   </si>
   <si>
     <t>6-3 5-7 6-3</t>
+  </si>
+  <si>
+    <t>Sára Bejlek (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(4) 7-5</t>
+  </si>
+  <si>
+    <t>1-6 7-5 7-6(5</t>
   </si>
 </sst>
 </file>
@@ -4699,17 +4714,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4729,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4749,7 +4764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4763,7 +4778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4781,17 +4796,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4811,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4831,7 +4846,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4865,7 +4880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4885,7 +4900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4899,7 +4914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4913,7 +4928,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4942,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4941,7 +4956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4969,7 +4984,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -4989,7 +5004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -5023,7 +5038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5037,7 +5052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5051,7 +5066,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -5071,7 +5086,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5085,7 +5100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5099,7 +5114,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5113,7 +5128,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5127,7 +5142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5161,7 +5176,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5175,7 +5190,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5189,7 +5204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5203,7 +5218,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5217,7 +5232,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5231,7 +5246,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5248,7 +5263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5259,7 +5274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5279,7 +5294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5293,7 +5308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5313,7 +5328,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5333,7 +5348,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5347,7 +5362,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5361,7 +5376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5375,7 +5390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5389,7 +5404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5403,7 +5418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5423,7 +5438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5437,7 +5452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5485,7 +5500,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5505,7 +5520,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5519,7 +5534,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5533,7 +5548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5547,7 +5562,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5561,7 +5576,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5581,7 +5596,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5595,7 +5610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5609,7 +5624,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5623,7 +5638,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5643,7 +5658,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5672,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5677,7 +5692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5691,7 +5706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5705,7 +5720,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5725,7 +5740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5739,7 +5754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5753,7 +5768,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5767,7 +5782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5781,7 +5796,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5801,7 +5816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5815,7 +5830,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5840,23 +5855,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="3" sqref="E9 E12 E23 E34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E41" activeCellId="8" sqref="E2:E6 E8 E11 E14:E17 E19:E22 E25:E26 E29:E33 E36:E39 E41:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5876,7 +5891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -5896,7 +5911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5910,7 +5925,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5924,7 +5939,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -5938,7 +5953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -5952,7 +5967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -5972,7 +5987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -5986,7 +6001,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6006,7 +6021,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -6020,7 +6035,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -6040,7 +6055,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6054,7 +6069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -6082,7 +6097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>629</v>
       </c>
@@ -6102,7 +6117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -6116,7 +6131,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6144,7 +6159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6173,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -6178,7 +6193,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -6192,7 +6207,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6206,7 +6221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -6226,7 +6241,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6255,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -6254,7 +6269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -6282,7 +6297,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -6296,7 +6311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6330,7 +6345,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -6344,7 +6359,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>17</v>
       </c>
@@ -6356,6 +6371,82 @@
       </c>
       <c r="F39" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>580</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>647</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>533</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>646</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>648</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>559</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -6372,20 +6463,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6405,7 +6496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6426,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6447,7 +6538,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6468,7 +6559,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6489,7 +6580,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6510,7 +6601,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6531,7 +6622,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6552,7 +6643,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6573,7 +6664,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6594,7 +6685,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6615,34 +6706,34 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6650,24 +6741,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.58675078864353314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.58878504672897192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.818181818181818</v>
+        <v>13.909090909090908</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6675,15 +6766,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>28.818181818181817</v>
+        <v>29.181818181818183</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>11.909090909090908</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.58675078864353303</v>
+        <v>0.58878504672897203</v>
       </c>
     </row>
   </sheetData>
@@ -6721,17 +6812,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6751,7 +6842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6771,7 +6862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6785,7 +6876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6805,7 +6896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6819,7 +6910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6833,7 +6924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6847,7 +6938,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6861,7 +6952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6875,7 +6966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6889,10 +6980,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6911,17 +7002,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6941,7 +7032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6961,7 +7052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -6975,7 +7066,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6995,7 +7086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7009,7 +7100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -7023,7 +7114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -7037,7 +7128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -7051,7 +7142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -7065,7 +7156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -7085,7 +7176,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7105,7 +7196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7119,7 +7210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7133,7 +7224,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7147,7 +7238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7161,7 +7252,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7175,7 +7266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -7195,7 +7286,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -7209,7 +7300,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -7223,7 +7314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -7237,7 +7328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -7257,7 +7348,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7271,7 +7362,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7285,7 +7376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7299,7 +7390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -7319,7 +7410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7333,7 +7424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7347,7 +7438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -7367,7 +7458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -7381,7 +7472,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7395,7 +7486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -7409,7 +7500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -7441,17 +7532,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7471,7 +7562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -7491,7 +7582,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7505,7 +7596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -7525,7 +7616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7539,7 +7630,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7553,7 +7644,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7567,7 +7658,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7581,7 +7672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7601,7 +7692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7621,7 +7712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7635,7 +7726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7649,7 +7740,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7663,7 +7754,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7683,7 +7774,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7703,7 +7794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7717,7 +7808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7731,7 +7822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7745,7 +7836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7765,7 +7856,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7779,7 +7870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7793,7 +7884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7807,7 +7898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7821,7 +7912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7841,7 +7932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7855,7 +7946,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7869,7 +7960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7883,7 +7974,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7903,7 +7994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -7917,7 +8008,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -7931,7 +8022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -7945,7 +8036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -7983,17 +8074,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8013,7 +8104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -8033,7 +8124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -8047,7 +8138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -8061,7 +8152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -8075,7 +8166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8089,7 +8180,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8103,7 +8194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -8123,7 +8214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -8137,7 +8228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -8151,7 +8242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -8165,7 +8256,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -8185,7 +8276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -8199,7 +8290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8304,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -8227,7 +8318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -8241,7 +8332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -8261,7 +8352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -8281,7 +8372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8295,7 +8386,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8309,7 +8400,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8323,7 +8414,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -8337,7 +8428,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -8357,7 +8448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -8377,7 +8468,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -8391,7 +8482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8405,7 +8496,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8419,7 +8510,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -8439,7 +8530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8453,7 +8544,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -8473,7 +8564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -8487,7 +8578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -8507,7 +8598,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -8521,7 +8612,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8535,7 +8626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -8555,7 +8646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -8575,7 +8666,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -8589,7 +8680,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -8609,7 +8700,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -8629,7 +8720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8643,7 +8734,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8663,7 +8754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8677,7 +8768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8697,7 +8788,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8711,7 +8802,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8731,7 +8822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8751,7 +8842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8771,7 +8862,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8785,7 +8876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8799,7 +8890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8819,7 +8910,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8833,7 +8924,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8853,7 +8944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8867,7 +8958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8887,7 +8978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -8919,17 +9010,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8949,7 +9040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -8969,7 +9060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -8983,7 +9074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -8997,7 +9088,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9011,7 +9102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9025,7 +9116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -9045,7 +9136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -9065,7 +9156,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -9085,7 +9176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -9099,7 +9190,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9113,7 +9204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -9127,7 +9218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -9141,7 +9232,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -9161,7 +9252,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -9181,7 +9272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9195,7 +9286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9209,7 +9300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9223,7 +9314,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9237,7 +9328,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9257,7 +9348,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -9271,7 +9362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -9285,7 +9376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -9299,7 +9390,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -9313,7 +9404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -9333,7 +9424,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9347,7 +9438,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -9367,7 +9458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -9387,7 +9478,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -9401,7 +9492,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -9415,7 +9506,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9429,7 +9520,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9443,7 +9534,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9463,7 +9554,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9477,7 +9568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -9497,7 +9588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -9511,7 +9602,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -9525,7 +9616,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -9539,7 +9630,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -9559,7 +9650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -9579,7 +9670,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -9593,7 +9684,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -9607,7 +9698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9621,7 +9712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9635,7 +9726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9649,7 +9740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9669,7 +9760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9683,7 +9774,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9697,7 +9788,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9717,7 +9808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9731,7 +9822,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9751,7 +9842,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9765,7 +9856,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9779,7 +9870,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9793,7 +9884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9807,7 +9898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9827,7 +9918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9841,7 +9932,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9861,7 +9952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9881,7 +9972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9895,7 +9986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -9909,7 +10000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -9923,7 +10014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -9943,7 +10034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -9957,7 +10048,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -9971,7 +10062,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -9985,7 +10076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -9999,7 +10090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -10019,7 +10110,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -10039,7 +10130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -10053,7 +10144,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -10067,7 +10158,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -10081,7 +10172,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -10101,7 +10192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -10115,7 +10206,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -10129,7 +10220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -10149,7 +10240,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -10163,7 +10254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -10177,7 +10268,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -10209,17 +10300,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10239,7 +10330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -10259,7 +10350,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10273,7 +10364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10287,7 +10378,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10301,7 +10392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -10315,7 +10406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -10335,7 +10426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10349,7 +10440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10363,7 +10454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -10377,7 +10468,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -10391,7 +10482,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10411,7 +10502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -10425,7 +10516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -10439,7 +10530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -10459,7 +10550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -10473,7 +10564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10487,7 +10578,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -10501,7 +10592,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -10515,7 +10606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -10535,7 +10626,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -10549,7 +10640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -10563,7 +10654,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -10577,7 +10668,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -10591,7 +10682,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -10611,7 +10702,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -10625,7 +10716,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10639,7 +10730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10659,7 +10750,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10679,7 +10770,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10693,7 +10784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10713,7 +10804,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10727,7 +10818,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10741,7 +10832,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10761,7 +10852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10775,7 +10866,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10789,7 +10880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10803,7 +10894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10817,7 +10908,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10837,7 +10928,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10851,7 +10942,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10888,17 +10979,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10918,7 +11009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -10938,7 +11029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -10952,7 +11043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -10966,7 +11057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -10980,7 +11071,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -11000,7 +11091,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -11020,7 +11111,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -11034,7 +11125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -11054,7 +11145,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -11074,7 +11165,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -11088,7 +11179,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -11108,7 +11199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -11122,7 +11213,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -11142,7 +11233,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -11159,7 +11250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -11170,7 +11261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -11190,7 +11281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -11204,7 +11295,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -11224,7 +11315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -11238,7 +11329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11252,7 +11343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -11266,7 +11357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11280,7 +11371,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11300,7 +11391,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -11314,7 +11405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -11334,7 +11425,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -11348,7 +11439,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11362,7 +11453,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -11376,7 +11467,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -11396,7 +11487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -11410,7 +11501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -11424,7 +11515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -11438,7 +11529,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -11458,7 +11549,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -11472,7 +11563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11486,7 +11577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -11500,7 +11591,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -11514,7 +11605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -11528,7 +11619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -11548,7 +11639,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -11562,7 +11653,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -11582,7 +11673,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -11602,7 +11693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -11616,7 +11707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -11630,7 +11721,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11650,7 +11741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11664,7 +11755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11678,7 +11769,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11698,7 +11789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11712,7 +11803,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11726,7 +11817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11746,7 +11837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11760,7 +11851,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11774,7 +11865,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11788,7 +11879,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11808,7 +11899,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11846,17 +11937,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11876,7 +11967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11896,7 +11987,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -11910,7 +12001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11924,7 +12015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -11938,7 +12029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -11952,7 +12043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11972,7 +12063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -11986,7 +12077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -12006,7 +12097,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -12020,7 +12111,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -12040,7 +12131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -12054,7 +12145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -12074,7 +12165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -12094,7 +12185,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -12108,7 +12199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -12122,7 +12213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12136,7 +12227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -12156,7 +12247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -12170,7 +12261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -12190,7 +12281,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -12207,7 +12298,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -12218,7 +12309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -12238,7 +12329,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -12252,7 +12343,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -12272,7 +12363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -12286,7 +12377,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -12300,7 +12391,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -12320,7 +12411,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -12334,7 +12425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -12348,7 +12439,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -12368,7 +12459,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -12382,7 +12473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -12396,7 +12487,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -12416,7 +12507,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -12430,7 +12521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -12450,7 +12541,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -12470,7 +12561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -12484,7 +12575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -12498,7 +12589,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -12512,7 +12603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -12526,7 +12617,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -12540,7 +12631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -12554,7 +12645,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -12574,7 +12665,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -12594,7 +12685,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -12608,7 +12699,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -12628,7 +12719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12642,7 +12733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12656,7 +12747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12670,7 +12761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12690,7 +12781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12710,7 +12801,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12724,7 +12815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12738,7 +12829,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12752,7 +12843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12766,7 +12857,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12786,7 +12877,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12800,7 +12891,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12814,7 +12905,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12828,7 +12919,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12848,7 +12939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9870" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5557BFE-DB6B-46CF-879C-F8B1DBCFA7FC}"/>
+  <xr:revisionPtr revIDLastSave="9892" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6065C56-0158-4F48-AA41-81D35A86BC46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="654">
   <si>
     <t>ROUND</t>
   </si>
@@ -1999,6 +1999,15 @@
   </si>
   <si>
     <t>1-6 7-5 7-6(5</t>
+  </si>
+  <si>
+    <t>Greet Minnen (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Arantxa Rus (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
   </si>
 </sst>
 </file>
@@ -4404,10 +4413,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4714,17 +4719,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4764,7 +4769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4792,21 +4797,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4846,7 +4851,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4880,7 +4885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4942,7 +4947,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -5004,7 +5009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -5086,7 +5091,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5128,7 +5133,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5156,7 +5161,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5176,7 +5181,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5190,7 +5195,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5232,7 +5237,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5263,7 +5268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5308,7 +5313,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5438,7 +5443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +5505,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5520,7 +5525,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5576,7 +5581,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5596,7 +5601,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5610,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5624,7 +5629,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5638,7 +5643,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5692,7 +5697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5720,7 +5725,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5740,7 +5745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5782,7 +5787,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5796,7 +5801,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5816,7 +5821,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5830,7 +5835,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5855,23 +5860,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" activeCellId="8" sqref="E2:E6 E8 E11 E14:E17 E19:E22 E25:E26 E29:E33 E36:E39 E41:E44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" activeCellId="9" sqref="E2:E6 E8 E11 E14:E17 E19:E22 E25:E26 E29:E33 E36:E39 E41:E44 E47:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -5953,7 +5958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -5967,7 +5972,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6001,7 +6006,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -6035,7 +6040,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -6055,7 +6060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -6097,7 +6102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>629</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -6145,7 +6150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6159,7 +6164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -6173,7 +6178,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -6193,7 +6198,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -6207,7 +6212,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -6241,7 +6246,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6255,7 +6260,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -6269,7 +6274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6283,7 +6288,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6350,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>17</v>
       </c>
@@ -6373,7 +6378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>580</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -6447,6 +6452,82 @@
       </c>
       <c r="F45" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>587</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>652</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>573</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>653</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6466,17 +6547,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6496,7 +6577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6517,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6538,7 +6619,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6559,7 +6640,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6580,7 +6661,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6601,7 +6682,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6622,7 +6703,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6643,7 +6724,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6664,7 +6745,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6685,7 +6766,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6706,34 +6787,34 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6741,24 +6822,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.58878504672897192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59076923076923082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>13.909090909090908</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6766,15 +6847,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>29.181818181818183</v>
+        <v>29.545454545454547</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>12</v>
+        <v>12.090909090909092</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.58878504672897203</v>
+        <v>0.59076923076923071</v>
       </c>
     </row>
   </sheetData>
@@ -6812,17 +6893,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6842,7 +6923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6862,7 +6943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6876,7 +6957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6896,7 +6977,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6910,7 +6991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -6924,7 +7005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -6938,7 +7019,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6952,7 +7033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -6966,7 +7047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -6980,10 +7061,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7002,17 +7083,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7032,7 +7113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7052,7 +7133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7066,7 +7147,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7086,7 +7167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7100,7 +7181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -7114,7 +7195,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -7128,7 +7209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -7142,7 +7223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -7156,7 +7237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -7176,7 +7257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7196,7 +7277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7210,7 +7291,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7224,7 +7305,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7238,7 +7319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7252,7 +7333,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7266,7 +7347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -7286,7 +7367,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -7300,7 +7381,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -7314,7 +7395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -7328,7 +7409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -7348,7 +7429,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7362,7 +7443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7376,7 +7457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7390,7 +7471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -7410,7 +7491,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7424,7 +7505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7438,7 +7519,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -7458,7 +7539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -7472,7 +7553,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7486,7 +7567,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -7500,7 +7581,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -7532,17 +7613,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7562,7 +7643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -7582,7 +7663,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7596,7 +7677,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -7616,7 +7697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7630,7 +7711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7644,7 +7725,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7658,7 +7739,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7672,7 +7753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7692,7 +7773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7712,7 +7793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7726,7 +7807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7740,7 +7821,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7754,7 +7835,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7774,7 +7855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7794,7 +7875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7808,7 +7889,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7822,7 +7903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7836,7 +7917,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7856,7 +7937,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7870,7 +7951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7884,7 +7965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7898,7 +7979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7912,7 +7993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -7932,7 +8013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7946,7 +8027,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -7960,7 +8041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -7974,7 +8055,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -7994,7 +8075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -8008,7 +8089,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -8022,7 +8103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8036,7 +8117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -8074,17 +8155,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8104,7 +8185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -8124,7 +8205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -8138,7 +8219,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -8152,7 +8233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -8166,7 +8247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8180,7 +8261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8194,7 +8275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -8214,7 +8295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -8228,7 +8309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -8242,7 +8323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -8256,7 +8337,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -8276,7 +8357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -8290,7 +8371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -8304,7 +8385,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -8318,7 +8399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -8332,7 +8413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -8352,7 +8433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -8372,7 +8453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8386,7 +8467,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8400,7 +8481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8414,7 +8495,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -8428,7 +8509,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -8448,7 +8529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -8468,7 +8549,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -8482,7 +8563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8496,7 +8577,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8510,7 +8591,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -8530,7 +8611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8544,7 +8625,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -8564,7 +8645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -8578,7 +8659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -8598,7 +8679,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -8612,7 +8693,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8626,7 +8707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -8646,7 +8727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -8666,7 +8747,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -8680,7 +8761,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -8700,7 +8781,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -8720,7 +8801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8734,7 +8815,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8754,7 +8835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8788,7 +8869,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8802,7 +8883,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8822,7 +8903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8842,7 +8923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8862,7 +8943,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8876,7 +8957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8890,7 +8971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8910,7 +8991,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -8924,7 +9005,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -8944,7 +9025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -8958,7 +9039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -8978,7 +9059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -9010,17 +9091,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9040,7 +9121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9060,7 +9141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9074,7 +9155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9088,7 +9169,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9102,7 +9183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9116,7 +9197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -9136,7 +9217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -9156,7 +9237,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -9176,7 +9257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -9190,7 +9271,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9204,7 +9285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -9218,7 +9299,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -9232,7 +9313,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -9252,7 +9333,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -9272,7 +9353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9286,7 +9367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9300,7 +9381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9314,7 +9395,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9328,7 +9409,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9348,7 +9429,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -9362,7 +9443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -9376,7 +9457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -9390,7 +9471,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -9404,7 +9485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -9424,7 +9505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9438,7 +9519,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -9458,7 +9539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -9478,7 +9559,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -9492,7 +9573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -9506,7 +9587,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9520,7 +9601,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9534,7 +9615,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9554,7 +9635,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9568,7 +9649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -9588,7 +9669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -9602,7 +9683,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -9616,7 +9697,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -9630,7 +9711,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -9650,7 +9731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -9670,7 +9751,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -9684,7 +9765,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -9698,7 +9779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9712,7 +9793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9726,7 +9807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9740,7 +9821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9760,7 +9841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9774,7 +9855,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9788,7 +9869,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9808,7 +9889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9822,7 +9903,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9842,7 +9923,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9856,7 +9937,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9870,7 +9951,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9884,7 +9965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9898,7 +9979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9918,7 +9999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -9932,7 +10013,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9952,7 +10033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -9972,7 +10053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -9986,7 +10067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -10000,7 +10081,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -10014,7 +10095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -10034,7 +10115,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -10048,7 +10129,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -10062,7 +10143,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -10076,7 +10157,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -10090,7 +10171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -10110,7 +10191,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -10130,7 +10211,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -10144,7 +10225,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -10158,7 +10239,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -10172,7 +10253,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -10192,7 +10273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -10206,7 +10287,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -10220,7 +10301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -10240,7 +10321,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -10254,7 +10335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -10268,7 +10349,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -10300,17 +10381,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10330,7 +10411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -10350,7 +10431,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10364,7 +10445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10378,7 +10459,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10392,7 +10473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -10406,7 +10487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -10426,7 +10507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10440,7 +10521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10454,7 +10535,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -10468,7 +10549,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -10482,7 +10563,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10502,7 +10583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -10516,7 +10597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -10530,7 +10611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -10550,7 +10631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -10564,7 +10645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10578,7 +10659,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -10592,7 +10673,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -10606,7 +10687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -10626,7 +10707,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -10640,7 +10721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -10654,7 +10735,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -10668,7 +10749,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -10682,7 +10763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -10702,7 +10783,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -10716,7 +10797,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10730,7 +10811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10750,7 +10831,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10770,7 +10851,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10784,7 +10865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10804,7 +10885,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10818,7 +10899,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10832,7 +10913,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10852,7 +10933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10866,7 +10947,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10880,7 +10961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10894,7 +10975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10908,7 +10989,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -10928,7 +11009,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -10942,7 +11023,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -10979,17 +11060,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11009,7 +11090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -11029,7 +11110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -11043,7 +11124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -11057,7 +11138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -11071,7 +11152,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -11091,7 +11172,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -11111,7 +11192,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -11125,7 +11206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -11145,7 +11226,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -11165,7 +11246,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -11179,7 +11260,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -11199,7 +11280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -11213,7 +11294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -11233,7 +11314,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -11250,7 +11331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -11261,7 +11342,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -11281,7 +11362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -11295,7 +11376,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -11315,7 +11396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -11329,7 +11410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11343,7 +11424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -11357,7 +11438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11371,7 +11452,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11391,7 +11472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -11405,7 +11486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -11425,7 +11506,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -11439,7 +11520,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11453,7 +11534,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -11467,7 +11548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -11487,7 +11568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -11501,7 +11582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -11515,7 +11596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -11529,7 +11610,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -11549,7 +11630,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -11563,7 +11644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11577,7 +11658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -11591,7 +11672,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -11605,7 +11686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -11619,7 +11700,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -11639,7 +11720,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -11653,7 +11734,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -11673,7 +11754,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -11693,7 +11774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -11707,7 +11788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -11721,7 +11802,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11741,7 +11822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11755,7 +11836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11769,7 +11850,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11789,7 +11870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11803,7 +11884,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11817,7 +11898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11837,7 +11918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11851,7 +11932,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11865,7 +11946,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11879,7 +11960,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11899,7 +11980,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -11937,17 +12018,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11967,7 +12048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -11987,7 +12068,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -12001,7 +12082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -12015,7 +12096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -12029,7 +12110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -12043,7 +12124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -12063,7 +12144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -12077,7 +12158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -12097,7 +12178,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -12111,7 +12192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -12131,7 +12212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -12145,7 +12226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -12165,7 +12246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -12185,7 +12266,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -12199,7 +12280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -12213,7 +12294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12227,7 +12308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -12247,7 +12328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -12261,7 +12342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -12281,7 +12362,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -12298,7 +12379,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -12309,7 +12390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -12329,7 +12410,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -12343,7 +12424,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -12363,7 +12444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -12377,7 +12458,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -12391,7 +12472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -12411,7 +12492,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -12425,7 +12506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -12439,7 +12520,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -12459,7 +12540,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -12473,7 +12554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -12487,7 +12568,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -12507,7 +12588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -12521,7 +12602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -12541,7 +12622,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -12561,7 +12642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -12575,7 +12656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -12589,7 +12670,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -12603,7 +12684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -12617,7 +12698,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -12631,7 +12712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -12645,7 +12726,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -12665,7 +12746,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -12685,7 +12766,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -12699,7 +12780,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -12719,7 +12800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12733,7 +12814,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12747,7 +12828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12761,7 +12842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12781,7 +12862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12801,7 +12882,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12815,7 +12896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12829,7 +12910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12843,7 +12924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12857,7 +12938,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12877,7 +12958,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12891,7 +12972,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12905,7 +12986,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -12919,7 +13000,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -12939,7 +13020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9892" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6065C56-0158-4F48-AA41-81D35A86BC46}"/>
+  <xr:revisionPtr revIDLastSave="9904" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B421CBFF-EB7C-4C14-BA06-2E9E0A7A933A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="655">
   <si>
     <t>ROUND</t>
   </si>
@@ -2008,6 +2008,9 @@
   </si>
   <si>
     <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>3-1 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -4719,17 +4722,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4801,17 +4804,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -5091,7 +5094,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5860,23 +5863,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" activeCellId="9" sqref="E2:E6 E8 E11 E14:E17 E19:E22 E25:E26 E29:E33 E36:E39 E41:E44 E47:E50"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>629</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>17</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>580</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>587</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6528,6 +6531,40 @@
       </c>
       <c r="F51" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>643</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>500</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6547,17 +6584,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6577,7 +6614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6598,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6619,7 +6656,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6640,7 +6677,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6661,7 +6698,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6682,7 +6719,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6703,7 +6740,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6724,7 +6761,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6745,7 +6782,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6766,7 +6803,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6787,34 +6824,34 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6822,24 +6859,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.59076923076923082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.58895705521472397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14</v>
+        <v>14.090909090909092</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6847,15 +6884,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>29.545454545454547</v>
+        <v>29.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>12.090909090909092</v>
+        <v>12.181818181818182</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.59076923076923071</v>
+        <v>0.58895705521472386</v>
       </c>
     </row>
   </sheetData>
@@ -6893,17 +6930,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6923,7 +6960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6943,7 +6980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +6994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6977,7 +7014,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -6991,7 +7028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7005,7 +7042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7019,7 +7056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7033,7 +7070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -7047,7 +7084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -7061,10 +7098,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7083,17 +7120,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7113,7 +7150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7133,7 +7170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7147,7 +7184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7167,7 +7204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7181,7 +7218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -7195,7 +7232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -7209,7 +7246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -7223,7 +7260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -7237,7 +7274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -7257,7 +7294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7277,7 +7314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7291,7 +7328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7305,7 +7342,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7319,7 +7356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7333,7 +7370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7347,7 +7384,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -7367,7 +7404,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -7381,7 +7418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -7395,7 +7432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -7409,7 +7446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -7429,7 +7466,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7443,7 +7480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7457,7 +7494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7471,7 +7508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -7491,7 +7528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7505,7 +7542,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7519,7 +7556,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -7539,7 +7576,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -7553,7 +7590,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7567,7 +7604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -7581,7 +7618,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -7613,17 +7650,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -7663,7 +7700,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7677,7 +7714,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -7697,7 +7734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7711,7 +7748,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7725,7 +7762,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7739,7 +7776,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7753,7 +7790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7773,7 +7810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7793,7 +7830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7807,7 +7844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7821,7 +7858,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7835,7 +7872,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7855,7 +7892,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7875,7 +7912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7889,7 +7926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7903,7 +7940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7917,7 +7954,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7937,7 +7974,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7951,7 +7988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -7965,7 +8002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -7979,7 +8016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -7993,7 +8030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -8013,7 +8050,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -8027,7 +8064,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -8041,7 +8078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -8055,7 +8092,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -8075,7 +8112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -8089,7 +8126,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -8103,7 +8140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8117,7 +8154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -8155,17 +8192,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8185,7 +8222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -8205,7 +8242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -8219,7 +8256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -8233,7 +8270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -8247,7 +8284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8275,7 +8312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -8295,7 +8332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -8309,7 +8346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -8323,7 +8360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -8337,7 +8374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -8357,7 +8394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -8371,7 +8408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -8385,7 +8422,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -8399,7 +8436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -8413,7 +8450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -8433,7 +8470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -8453,7 +8490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8467,7 +8504,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8481,7 +8518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8495,7 +8532,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -8509,7 +8546,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -8529,7 +8566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -8549,7 +8586,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8577,7 +8614,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8591,7 +8628,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -8611,7 +8648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8625,7 +8662,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -8645,7 +8682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -8659,7 +8696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -8679,7 +8716,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -8693,7 +8730,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8707,7 +8744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -8727,7 +8764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -8747,7 +8784,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -8761,7 +8798,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -8781,7 +8818,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -8801,7 +8838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8815,7 +8852,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8835,7 +8872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8849,7 +8886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8869,7 +8906,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8883,7 +8920,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8903,7 +8940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8923,7 +8960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8943,7 +8980,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8957,7 +8994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -8971,7 +9008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -8991,7 +9028,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -9005,7 +9042,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -9025,7 +9062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -9039,7 +9076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -9059,7 +9096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -9091,17 +9128,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9121,7 +9158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9141,7 +9178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9155,7 +9192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9169,7 +9206,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9183,7 +9220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9197,7 +9234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -9217,7 +9254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -9237,7 +9274,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -9257,7 +9294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -9271,7 +9308,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9285,7 +9322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -9299,7 +9336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -9313,7 +9350,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -9333,7 +9370,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -9353,7 +9390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9367,7 +9404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9381,7 +9418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9395,7 +9432,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9409,7 +9446,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9429,7 +9466,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -9443,7 +9480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -9457,7 +9494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -9471,7 +9508,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -9485,7 +9522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -9505,7 +9542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9519,7 +9556,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -9539,7 +9576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -9559,7 +9596,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -9573,7 +9610,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -9587,7 +9624,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9601,7 +9638,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9615,7 +9652,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9635,7 +9672,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9649,7 +9686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -9669,7 +9706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -9683,7 +9720,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -9697,7 +9734,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -9711,7 +9748,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -9731,7 +9768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -9751,7 +9788,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -9765,7 +9802,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -9779,7 +9816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9793,7 +9830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9807,7 +9844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9821,7 +9858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9841,7 +9878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9855,7 +9892,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9869,7 +9906,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9889,7 +9926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9903,7 +9940,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9923,7 +9960,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9937,7 +9974,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9951,7 +9988,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -9965,7 +10002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -9979,7 +10016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -9999,7 +10036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -10013,7 +10050,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -10033,7 +10070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -10053,7 +10090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -10067,7 +10104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -10081,7 +10118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -10095,7 +10132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -10115,7 +10152,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -10129,7 +10166,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -10143,7 +10180,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -10157,7 +10194,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -10171,7 +10208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -10191,7 +10228,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -10211,7 +10248,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -10225,7 +10262,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -10239,7 +10276,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -10253,7 +10290,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -10273,7 +10310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -10287,7 +10324,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -10301,7 +10338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -10321,7 +10358,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -10335,7 +10372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -10349,7 +10386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -10381,17 +10418,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10411,7 +10448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -10431,7 +10468,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10445,7 +10482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10459,7 +10496,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10473,7 +10510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -10487,7 +10524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -10507,7 +10544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10521,7 +10558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10535,7 +10572,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -10549,7 +10586,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -10563,7 +10600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10583,7 +10620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -10597,7 +10634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -10611,7 +10648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -10631,7 +10668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -10645,7 +10682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10659,7 +10696,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -10673,7 +10710,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -10687,7 +10724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -10707,7 +10744,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -10721,7 +10758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -10735,7 +10772,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -10749,7 +10786,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -10763,7 +10800,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -10783,7 +10820,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -10797,7 +10834,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10811,7 +10848,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10831,7 +10868,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10851,7 +10888,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10865,7 +10902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10885,7 +10922,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10899,7 +10936,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10913,7 +10950,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10933,7 +10970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10947,7 +10984,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10961,7 +10998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -10975,7 +11012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -10989,7 +11026,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -11009,7 +11046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -11023,7 +11060,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -11060,17 +11097,17 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11090,7 +11127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -11110,7 +11147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -11124,7 +11161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -11138,7 +11175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -11152,7 +11189,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -11172,7 +11209,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -11192,7 +11229,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -11206,7 +11243,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -11226,7 +11263,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -11246,7 +11283,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -11260,7 +11297,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -11280,7 +11317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -11294,7 +11331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -11314,7 +11351,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -11331,7 +11368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -11342,7 +11379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -11362,7 +11399,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -11376,7 +11413,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -11396,7 +11433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -11410,7 +11447,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11424,7 +11461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -11438,7 +11475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11452,7 +11489,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11472,7 +11509,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -11486,7 +11523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -11506,7 +11543,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -11520,7 +11557,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11534,7 +11571,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -11548,7 +11585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -11568,7 +11605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -11582,7 +11619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -11596,7 +11633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -11610,7 +11647,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -11630,7 +11667,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -11644,7 +11681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11658,7 +11695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -11672,7 +11709,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -11686,7 +11723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -11700,7 +11737,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -11720,7 +11757,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -11734,7 +11771,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -11754,7 +11791,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -11774,7 +11811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -11788,7 +11825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -11802,7 +11839,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11822,7 +11859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11836,7 +11873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11850,7 +11887,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11870,7 +11907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11884,7 +11921,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11898,7 +11935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11918,7 +11955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11932,7 +11969,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11946,7 +11983,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11960,7 +11997,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -11980,7 +12017,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -12018,17 +12055,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12048,7 +12085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -12068,7 +12105,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -12082,7 +12119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -12096,7 +12133,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -12110,7 +12147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -12124,7 +12161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -12144,7 +12181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -12158,7 +12195,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -12178,7 +12215,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -12192,7 +12229,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -12212,7 +12249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -12226,7 +12263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -12246,7 +12283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -12266,7 +12303,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -12280,7 +12317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -12294,7 +12331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12308,7 +12345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -12328,7 +12365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -12342,7 +12379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -12362,7 +12399,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -12379,7 +12416,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -12390,7 +12427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -12410,7 +12447,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -12424,7 +12461,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -12444,7 +12481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -12458,7 +12495,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -12472,7 +12509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -12492,7 +12529,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -12506,7 +12543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -12520,7 +12557,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -12540,7 +12577,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -12554,7 +12591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -12568,7 +12605,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>542</v>
       </c>
@@ -12588,7 +12625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>11</v>
       </c>
@@ -12602,7 +12639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -12622,7 +12659,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -12642,7 +12679,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -12656,7 +12693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -12670,7 +12707,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>11</v>
       </c>
@@ -12684,7 +12721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>15</v>
       </c>
@@ -12698,7 +12735,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -12712,7 +12749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>17</v>
       </c>
@@ -12726,7 +12763,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -12746,7 +12783,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>482</v>
       </c>
@@ -12766,7 +12803,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>12</v>
       </c>
@@ -12780,7 +12817,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>532</v>
       </c>
@@ -12800,7 +12837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>12</v>
       </c>
@@ -12814,7 +12851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
@@ -12828,7 +12865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12842,7 +12879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -12862,7 +12899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>536</v>
       </c>
@@ -12882,7 +12919,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -12896,7 +12933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -12910,7 +12947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>16</v>
       </c>
@@ -12924,7 +12961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>17</v>
       </c>
@@ -12938,7 +12975,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>441</v>
       </c>
@@ -12958,7 +12995,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -12972,7 +13009,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -12986,7 +13023,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>16</v>
       </c>
@@ -13000,7 +13037,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>549</v>
       </c>
@@ -13020,7 +13057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>12</v>
       </c>

--- a/Tennis/WTA Tour/Elena Rybakina.xlsx
+++ b/Tennis/WTA Tour/Elena Rybakina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9904" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B421CBFF-EB7C-4C14-BA06-2E9E0A7A933A}"/>
+  <xr:revisionPtr revIDLastSave="9939" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2577ADD0-795A-47EB-BB48-2A0E3EA8434A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="32" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="659">
   <si>
     <t>ROUND</t>
   </si>
@@ -2011,6 +2011,18 @@
   </si>
   <si>
     <t>3-1 RETIRED</t>
+  </si>
+  <si>
+    <t>Elena-Gabriela Ruse (ROMANIA)</t>
+  </si>
+  <si>
+    <t>Caroline Wozniacki (DENMARK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3 3-6 6-3 </t>
+  </si>
+  <si>
+    <t>6-3 3-0 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -4331,7 +4343,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{91AF5049-7C58-4A38-BF70-16706CBA70F0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4343,7 +4355,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3DEF8771-E53D-486D-B6C3-B7B3AAB77AB3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4414,6 +4426,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4718,21 +4734,21 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4752,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4772,7 +4788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -4786,7 +4802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4800,21 +4816,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4854,7 +4870,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4868,7 +4884,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>556</v>
       </c>
@@ -4888,7 +4904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -4908,7 +4924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -4922,7 +4938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4936,7 +4952,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -4950,7 +4966,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -4964,7 +4980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -4978,7 +4994,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -4992,7 +5008,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -5012,7 +5028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>423</v>
       </c>
@@ -5046,7 +5062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -5060,7 +5076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -5074,7 +5090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -5094,7 +5110,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
@@ -5108,7 +5124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -5122,7 +5138,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -5136,7 +5152,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>16</v>
       </c>
@@ -5150,7 +5166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -5164,7 +5180,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -5184,7 +5200,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -5198,7 +5214,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -5226,7 +5242,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5240,7 +5256,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -5254,7 +5270,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>577</v>
       </c>
@@ -5271,7 +5287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>579</v>
       </c>
@@ -5282,7 +5298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5302,7 +5318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -5316,7 +5332,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -5336,7 +5352,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -5356,7 +5372,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -5370,7 +5386,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>11</v>
       </c>
@@ -5384,7 +5400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>15</v>
       </c>
@@ -5398,7 +5414,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>16</v>
       </c>
@@ -5412,7 +5428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>17</v>
       </c>
@@ -5426,7 +5442,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>587</v>
       </c>
@@ -5446,7 +5462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>45</v>
       </c>
@@ -5460,7 +5476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -5474,7 +5490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -5494,7 +5510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -5508,7 +5524,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5528,7 +5544,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>45</v>
       </c>
@@ -5542,7 +5558,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -5556,7 +5572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -5570,7 +5586,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>15</v>
       </c>
@@ -5584,7 +5600,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>482</v>
       </c>
@@ -5604,7 +5620,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5618,7 +5634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -5632,7 +5648,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>16</v>
       </c>
@@ -5646,7 +5662,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -5666,7 +5682,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +5696,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -5700,7 +5716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>45</v>
       </c>
@@ -5714,7 +5730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -5728,7 +5744,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>610</v>
       </c>
@@ -5748,7 +5764,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>12</v>
       </c>
@@ -5762,7 +5778,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -5776,7 +5792,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>16</v>
       </c>
@@ -5804,7 +5820,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>615</v>
       </c>
@@ -5824,7 +5840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>616</v>
       </c>
@@ -5838,7 +5854,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>616</v>
       </c>
@@ -5863,23 +5879,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5899,7 +5915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>619</v>
       </c>
@@ -5919,7 +5935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5933,7 +5949,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -5947,7 +5963,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -5961,7 +5977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -5975,7 +5991,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>492</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -6009,7 +6025,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6029,7 +6045,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -6043,7 +6059,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -6063,7 +6079,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -6077,7 +6093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -6091,7 +6107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -6105,7 +6121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>629</v>
       </c>
@@ -6125,7 +6141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -6139,7 +6155,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -6153,7 +6169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
@@ -6167,7 +6183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>423</v>
       </c>
@@ -6201,7 +6217,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -6215,7 +6231,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -6229,7 +6245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -6249,7 +6265,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -6263,7 +6279,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -6277,7 +6293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -6291,7 +6307,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -6305,7 +6321,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>17</v>
       </c>
@@ -6319,7 +6335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -6339,7 +6355,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>16</v>
       </c>
@@ -6367,7 +6383,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>17</v>
       </c>
@@ -6381,7 +6397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>580</v>
       </c>
@@ -6401,7 +6417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -6415,7 +6431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>11</v>
       </c>
@@ -6429,7 +6445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -6443,7 +6459,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>16</v>
       </c>
@@ -6457,7 +6473,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>587</v>
       </c>
@@ -6477,7 +6493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -6491,7 +6507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -6505,7 +6521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -6519,7 +6535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -6533,7 +6549,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -6553,7 +6569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -6565,6 +6581,96 @@
       </c>
       <c r="F54" t="s">
         <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" t="s">
+        <v>655</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>538</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>656</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>570</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>653</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>446</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6581,20 +6687,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6614,7 +6720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -6635,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -6656,7 +6762,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6677,7 +6783,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -6698,7 +6804,7 @@
         <v>0.52380952380952384</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -6719,7 +6825,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -6740,7 +6846,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -6761,7 +6867,7 @@
         <v>0.65517241379310343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -6782,7 +6888,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -6803,7 +6909,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -6824,34 +6930,34 @@
         <v>0.7021276595744681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6859,24 +6965,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7">
         <f>(D13-E13)/D13</f>
-        <v>0.58895705521472397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59214501510574014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.090909090909092</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6884,15 +6990,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>29.636363636363637</v>
+        <v>30.09090909090909</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>12.181818181818182</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="F14" s="7">
         <f>(D14-E14)/D14</f>
-        <v>0.58895705521472386</v>
+        <v>0.59214501510574014</v>
       </c>
     </row>
   </sheetData>
@@ -6926,21 +7032,21 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +7066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6980,7 +7086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6994,7 +7100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7014,7 +7120,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7028,7 +7134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7042,7 +7148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7056,7 +7162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7070,7 +7176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -7084,7 +7190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -7098,10 +7204,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7116,21 +7222,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7150,7 +7256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7170,7 +7276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7184,7 +7290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -7204,7 +7310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7218,7 +7324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -7232,7 +7338,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
@@ -7246,7 +7352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -7260,7 +7366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -7274,7 +7380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -7294,7 +7400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7314,7 +7420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -7328,7 +7434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -7356,7 +7462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7370,7 +7476,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -7384,7 +7490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -7404,7 +7510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>11</v>
       </c>
@@ -7418,7 +7524,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -7432,7 +7538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -7446,7 +7552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -7466,7 +7572,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -7480,7 +7586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7494,7 +7600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -7508,7 +7614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -7528,7 +7634,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>12</v>
       </c>
@@ -7556,7 +7662,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -7576,7 +7682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -7590,7 +7696,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -7604,7 +7710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>16</v>
       </c>
@@ -7618,7 +7724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>17</v>
       </c>
@@ -7646,21 +7752,21 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7680,7 +7786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -7700,7 +7806,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -7714,7 +7820,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -7734,7 +7840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -7748,7 +7854,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -7762,7 +7868,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -7776,7 +7882,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7790,7 +7896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7810,7 +7916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7830,7 +7936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -7844,7 +7950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -7858,7 +7964,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -7872,7 +7978,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7892,7 +7998,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -7912,7 +8018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7926,7 +8032,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -7940,7 +8046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -7954,7 +8060,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -7974,7 +8080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -7988,7 +8094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -8002,7 +8108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -8016,7 +8122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -8030,7 +8136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -8050,7 +8156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
@@ -8064,7 +8170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -8078,7 +8184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>12</v>
       </c>
@@ -8092,7 +8198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -8112,7 +8218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>21</v>
       </c>
@@ -8126,7 +8232,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -8140,7 +8246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -8154,7 +8260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -8188,21 +8294,21 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8222,7 +8328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -8242,7 +8348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -8256,7 +8362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -8270,7 +8376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -8284,7 +8390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -8298,7 +8404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -8332,7 +8438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -8346,7 +8452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -8360,7 +8466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -8374,7 +8480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -8394,7 +8500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -8408,7 +8514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -8422,7 +8528,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -8436,7 +8542,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -8450,7 +8556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -8470,7 +8576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -8490,7 +8596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>
@@ -8504,7 +8610,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -8518,7 +8624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -8532,7 +8638,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -8546,7 +8652,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -8566,7 +8672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -8586,7 +8692,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -8600,7 +8706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>12</v>
       </c>
@@ -8614,7 +8720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -8628,7 +8734,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -8648,7 +8754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -8662,7 +8768,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -8682,7 +8788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -8696,7 +8802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -8716,7 +8822,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>11</v>
       </c>
@@ -8730,7 +8836,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8744,7 +8850,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>257</v>
       </c>
@@ -8764,7 +8870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>259</v>
       </c>
@@ -8784,7 +8890,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -8798,7 +8904,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>263</v>
       </c>
@@ -8818,7 +8924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -8838,7 +8944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>21</v>
       </c>
@@ -8852,7 +8958,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -8872,7 +8978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>21</v>
       </c>
@@ -8886,7 +8992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -8906,7 +9012,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>21</v>
       </c>
@@ -8920,7 +9026,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -8940,7 +9046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>207</v>
       </c>
@@ -8960,7 +9066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -8980,7 +9086,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>11</v>
       </c>
@@ -8994,7 +9100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -9028,7 +9134,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -9042,7 +9148,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -9062,7 +9168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -9076,7 +9182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -9096,7 +9202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -9124,21 +9230,21 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9158,7 +9264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -9178,7 +9284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -9192,7 +9298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9206,7 +9312,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -9220,7 +9326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -9234,7 +9340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -9254,7 +9360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -9274,7 +9380,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -9294,7 +9400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -9308,7 +9414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9322,7 +9428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -9336,7 +9442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -9350,7 +9456,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -9370,7 +9476,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -9390,7 +9496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -9404,7 +9510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -9418,7 +9524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>16</v>
       </c>
@@ -9432,7 +9538,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -9446,7 +9552,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -9466,7 +9572,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>11</v>
       </c>
@@ -9480,7 +9586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -9494,7 +9600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
@@ -9508,7 +9614,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -9522,7 +9628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>231</v>
       </c>
@@ -9542,7 +9648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -9556,7 +9662,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -9576,7 +9682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>322</v>
       </c>
@@ -9596,7 +9702,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>21</v>
       </c>
@@ -9610,7 +9716,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>12</v>
       </c>
@@ -9624,7 +9730,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>11</v>
       </c>
@@ -9638,7 +9744,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -9652,7 +9758,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9672,7 +9778,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -9686,7 +9792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -9706,7 +9812,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>21</v>
       </c>
@@ -9720,7 +9826,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>41</v>
       </c>
@@ -9734,7 +9840,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -9748,7 +9854,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -9768,7 +9874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -9788,7 +9894,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
@@ -9802,7 +9908,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -9816,7 +9922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>11</v>
       </c>
@@ -9830,7 +9936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -9844,7 +9950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>16</v>
       </c>
@@ -9858,7 +9964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -9878,7 +9984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -9892,7 +9998,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>41</v>
       </c>
@@ -9906,7 +10012,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -9926,7 +10032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -9940,7 +10046,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -9960,7 +10066,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -9974,7 +10080,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -9988,7 +10094,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>16</v>
       </c>
@@ -10002,7 +10108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>17</v>
       </c>
@@ -10016,7 +10122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -10036,7 +10142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -10050,7 +10156,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -10070,7 +10176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -10090,7 +10196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>21</v>
       </c>
@@ -10104,7 +10210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>41</v>
       </c>
@@ -10118,7 +10224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -10132,7 +10238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>374</v>
       </c>
@@ -10152,7 +10258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>11</v>
       </c>
@@ -10166,7 +10272,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>15</v>
       </c>
@@ -10180,7 +10286,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -10194,7 +10300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -10208,7 +10314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -10228,7 +10334,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>384</v>
       </c>
@@ -10248,7 +10354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>12</v>
       </c>
@@ -10262,7 +10368,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>11</v>
       </c>
@@ -10276,7 +10382,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -10290,7 +10396,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -10310,7 +10416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
@@ -10324,7 +10430,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -10338,7 +10444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -10358,7 +10464,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>11</v>
       </c>
@@ -10372,7 +10478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>15</v>
       </c>
@@ -10386,7 +10492,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -10414,21 +10520,21 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10448,7 +10554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -10468,7 +10574,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10482,7 +10588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10496,7 +10602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -10510,7 +10616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -10524,7 +10630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>409</v>
       </c>
@@ -10544,7 +10650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10558,7 +10664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -10572,7 +10678,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -10586,7 +10692,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -10600,7 +10706,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10620,7 +10726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>45</v>
       </c>
@@ -10634,7 +10740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -10648,7 +10754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -10668,7 +10774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -10682,7 +10788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10696,7 +10802,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -10710,7 +10816,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -10724,7 +10830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -10744,7 +10850,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -10758,7 +10864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -10772,7 +10878,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>16</v>
       </c>
@@ -10786,7 +10892,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>17</v>
       </c>
@@ -10800,7 +10906,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>422</v>
       </c>
@@ -10820,7 +10926,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -10834,7 +10940,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -10848,7 +10954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -10868,7 +10974,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -10888,7 +10994,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
@@ -10902,7 +11008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -10922,7 +11028,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -10936,7 +11042,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -10950,7 +11056,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10970,7 +11076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>11</v>
       </c>
@@ -10984,7 +11090,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -10998,7 +11104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>16</v>
       </c>
@@ -11012,7 +11118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>17</v>
       </c>
@@ -11026,7 +11132,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -11046,7 +11152,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -11060,7 +11166,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>441</v>
       </c>
@@ -11093,21 +11199,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11127,7 +11233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>563</v>
       </c>
@@ -11147,7 +11253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -11161,7 +11267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -11175,7 +11281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>15</v>
       </c>
@@ -11189,7 +11295,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>447</v>
       </c>
@@ -11209,7 +11315,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -11229,7 +11335,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -11243,7 +11349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -11263,7 +11369,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>423</v>
       </c>
@@ -11283,7 +11389,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>12</v>
       </c>
@@ -11297,7 +11403,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -11317,7 +11423,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -11331,7 +11437,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>453</v>
       </c>
@@ -11351,7 +11457,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>455</v>
       </c>
@@ -11368,7 +11474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>456</v>
       </c>
@@ -11379,7 +11485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -11399,7 +11505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>12</v>
       </c>
@@ -11413,7 +11519,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>335</v>
       </c>
@@ -11433,7 +11539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -11447,7 +11553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -11461,7 +11567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -11475,7 +11581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -11489,7 +11595,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11509,7 +11615,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -11523,7 +11629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -11543,7 +11649,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -11557,7 +11663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -11571,7 +11677,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -11585,7 +11691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -11605,7 +11711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>45</v>
       </c>
@@ -11619,7 +11725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -11633,7 +11739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>11</v>
       </c>
@@ -11647,7 +11753,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -11667,7 +11773,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>45</v>
       </c>
@@ -11681,7 +11787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>12</v>
       </c>
@@ -11695,7 +11801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>11</v>
       </c>
@@ -11709,7 +11815,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -11723,7 +11829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>16</v>
       </c>
@@ -11737,7 +11843,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>478</v>
       </c>
@@ -11757,7 +11863,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>15</v>
       </c>
@@ -11771,7 +11877,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>482</v>
       </c>
@@ -11791,7 +11897,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -11811,7 +11917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>12</v>
       </c>
@@ -11825,7 +11931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>11</v>
       </c>
@@ -11839,7 +11945,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -11859,7 +11965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>45</v>
       </c>
@@ -11873,7 +11979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>12</v>
       </c>
@@ -11887,7 +11993,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -11907,7 +12013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>11</v>
       </c>
@@ -11921,7 +12027,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>15</v>
       </c>
@@ -11935,7 +12041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11955,7 +12061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -11969,7 +12075,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -11983,7 +12089,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>16</v>
       </c>
@@ -11997,7 +12103,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -12017,7 +12123,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -12051,21 +12157,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12085,7 +12191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -12105,7 +12211,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -12119,7 +12225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -12133,7 +12239,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -12147,7 +12253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -12161,7 +12267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -12181,7 +12287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -12195,7 +12301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -12215,7 +12321,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
@@ -12229,7 +12335,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -12249,7 +12355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -12263,7 +12369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -12283,7 +12389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -12303,7 +12409,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -12331,7 +12437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -12345,7 +12451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -12365,7 +12471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>12</v>
       </c>
@@ -12379,7 +12485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>453</v>
       </c>
@@ -12399,7 +12505,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>455</v>
       </c>
@@ -12416,7 +12522,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>306</v>
       </c>
@@ -12427,7 +12533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -12447,7 +12553,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -12461,7 +12567,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>580</v>
       </c>
@@ -12481,7 +12587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>12</v>
       </c>
@@ -12495,7 +12601,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -12509,7 +12615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -12529,7 +12635,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -12543,7 +12649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -12557,7 +12663,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>335</v>
       </c>
@@ -